--- a/cyx_jobstreet_jobs.xlsx
+++ b/cyx_jobstreet_jobs.xlsx
@@ -473,17 +473,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Senior Planning Engineer ( Waterfront Project )</t>
+          <t>Social Worker (CREST / COMIT)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>81997354</t>
+          <t>81997512</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>China Jingye Engineering Corporation Limited (Singapore Branch)</t>
+          <t>Viriya Community Services</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -498,29 +498,29 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['Sentosa', ',Central Region']</t>
+          <t>['West Region']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>29m ago</t>
+          <t>36m ago</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Security Systems Project Director</t>
+          <t>Senior Planning Engineer ( Waterfront Project )</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>81997351</t>
+          <t>81997354</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CERTIS GROUP - GHR</t>
+          <t>China Jingye Engineering Corporation Limited (Singapore Branch)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -535,34 +535,34 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['Commonwealth', ',Central Region']</t>
+          <t>['Sentosa', ',Central Region']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>29m ago</t>
+          <t>58m ago</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Store Assistant</t>
+          <t>Security Systems Project Director</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>81997313</t>
+          <t>81997351</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SIMCC PTE LTD</t>
+          <t>CERTIS GROUP - GHR</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>$2,000 – $2,500 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -572,34 +572,34 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Commonwealth', ',Central Region']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>34m ago</t>
+          <t>58m ago</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PUBLIC RELATIONS OFFICER – CONSTRUCTION</t>
+          <t>Store Assistant</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>81997306</t>
+          <t>81997313</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>People Profilers Pte Ltd</t>
+          <t>SIMCC PTE LTD</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>$2,500 – $3,100 per month</t>
+          <t>$2,000 – $2,500 per month</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -614,29 +614,29 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>37m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Executive / Senior Executive - Retail Campaign Marketing</t>
+          <t>PUBLIC RELATIONS OFFICER – CONSTRUCTION</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>81997291</t>
+          <t>81997306</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Lagardere Travel Retail Singapore Pte Ltd</t>
+          <t>People Profilers Pte Ltd</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$2,500 – $3,100 per month</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -646,34 +646,34 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>['Paya Lebar', ',East Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>41m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Project Manager (Security Technology)</t>
+          <t>Executive / Senior Executive - Retail Campaign Marketing</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>81997279</t>
+          <t>81997291</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CERTIS GROUP - GHR</t>
+          <t>Lagardere Travel Retail Singapore Pte Ltd</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>$5,000 – $7,500 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -683,34 +683,34 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>['Commonwealth', ',Central Region']</t>
+          <t>['Paya Lebar', ',East Region']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>43m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Accountant</t>
+          <t>Project Manager (Security Technology)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>81997278</t>
+          <t>81997279</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>City Developments Limited</t>
+          <t>CERTIS GROUP - GHR</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$5,000 – $7,500 per month</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -720,34 +720,34 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Commonwealth', ',Central Region']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>44m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Private Bus Driver (Class 4/BDVL/Gross up to $3500)</t>
+          <t>Accountant</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>81997121</t>
+          <t>81997278</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>City Developments Limited</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>$2,500 – $3,500 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -762,29 +762,29 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>52m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Executive / Senior Executive, Property Management</t>
+          <t>Private Bus Driver (Class 4/BDVL/Gross up to $3500)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>81997091</t>
+          <t>81997121</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>City Developments Limited</t>
+          <t>CVista HR Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$2,500 – $3,500 per month</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -799,24 +799,24 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>55m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sales Consultant</t>
+          <t>Executive / Senior Executive, Property Management</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>81997077</t>
+          <t>81997091</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Trusty Cars Ltd.</t>
+          <t>City Developments Limited</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -831,34 +831,34 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>['Bishan', ',Central Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>57m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CUSTOMER SERVICE EXECUTIVE – SWISS MNC ($3K + AWS + 2 months Bonus)</t>
+          <t>Sales Consultant</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>81997068</t>
+          <t>81997077</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>People Profilers Pte Ltd</t>
+          <t>Trusty Cars Ltd.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>$2,200 – $3,200 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>['West Region']</t>
+          <t>['Bishan', ',Central Region']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -880,22 +880,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Bus Driver (Class 4/Islandwide/Basic+OT=Gross up to $5000/fixed shift)</t>
+          <t>CUSTOMER SERVICE EXECUTIVE – SWISS MNC ($3K + AWS + 2 months Bonus)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>81997051</t>
+          <t>81997068</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>People Profilers Pte Ltd</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>$2,400 per month</t>
+          <t>$2,200 – $3,200 per month</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -905,7 +905,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['West Region']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -917,32 +917,32 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Accounts &amp; Admin Executive - short contract (Engineering/3.6k/5 days)</t>
+          <t>Bus Driver (Class 4/Islandwide/Basic+OT=Gross up to $5000/fixed shift)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>81997037</t>
+          <t>81997051</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>RECRUIT FAST PTE. LTD.</t>
+          <t>CVista HR Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>$3,000 – $3,600 per month</t>
+          <t>$2,400 per month</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>This is a Contract/Temp job</t>
+          <t>This is a Full time job</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>['West Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -954,32 +954,32 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Bus Driver (Class 4/BDVL/Gross up to $2850/Rotating shift/Islandwide)</t>
+          <t>Accounts &amp; Admin Executive - short contract (Engineering/3.6k/5 days)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>81997030</t>
+          <t>81997037</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>RECRUIT FAST PTE. LTD.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>$1,800 – $2,200 per month</t>
+          <t>$3,000 – $3,600 per month</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>This is a Full time job</t>
+          <t>This is a Contract/Temp job</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['West Region']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -991,22 +991,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sales Executive (Based in Singapore)</t>
+          <t>Bus Driver (Class 4/BDVL/Gross up to $2850/Rotating shift/Islandwide)</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>81997023</t>
+          <t>81997030</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Etika Group of Companies</t>
+          <t>CVista HR Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>$2,500 – $3,000 per month</t>
+          <t>$1,800 – $2,200 per month</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>['Kaki Bukit', ',East Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1028,22 +1028,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Senior Mechanical Engineer (Semiconductor)</t>
+          <t>Sales Executive (Based in Singapore)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>81997020</t>
+          <t>81997023</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Talent Spot Group Pte Ltd</t>
+          <t>Etika Group of Companies</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>$8,000 – $10,000 per month</t>
+          <t>$2,500 – $3,000 per month</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>['North Region']</t>
+          <t>['Kaki Bukit', ',East Region']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1065,22 +1065,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Lift Technician ( 5 Days  / Islandwide / Up to $3800 )</t>
+          <t>Senior Mechanical Engineer (Semiconductor)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>81997004</t>
+          <t>81997020</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ALWAYSHIRED PTE. LTD.</t>
+          <t>Talent Spot Group Pte Ltd</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>$3,000 – $4,000 per month</t>
+          <t>$8,000 – $10,000 per month</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>['Kallang', ',Central Region']</t>
+          <t>['North Region']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1102,22 +1102,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sales Engineer</t>
+          <t>Lift Technician ( 5 Days  / Islandwide / Up to $3800 )</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>81983111</t>
+          <t>81997004</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Electronics &amp; Engineering Pte Ltd</t>
+          <t>ALWAYSHIRED PTE. LTD.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$3,000 – $4,000 per month</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1127,7 +1127,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>['Outram', ',Central Region']</t>
+          <t>['Kallang', ',Central Region']</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1139,22 +1139,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Accountant (Based in Singapore)</t>
+          <t>Sales Engineer</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>81996973</t>
+          <t>81983111</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Etika Group of Companies</t>
+          <t>Electronics &amp; Engineering Pte Ltd</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>$3,000 – $4,500 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>['Kaki Bukit', ',East Region']</t>
+          <t>['Outram', ',Central Region']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1176,22 +1176,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Logistics Driver (SG only/Pulau Bukom/Class 4/Forklift/Up to $3000)</t>
+          <t>Accountant (Based in Singapore)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>81996969</t>
+          <t>81996973</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>Etika Group of Companies</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>$3,000 per month</t>
+          <t>$3,000 – $4,500 per month</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1201,7 +1201,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>['Jurong Island And Bukom', ',West Region']</t>
+          <t>['Kaki Bukit', ',East Region']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1213,32 +1213,32 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ASSISTANT MEMBERSHIP SERVICES EXECUTIVE</t>
+          <t>Logistics Driver (SG only/Pulau Bukom/Class 4/Forklift/Up to $3000)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>81996957</t>
+          <t>81996969</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SAFRA National Service Association</t>
+          <t>CVista HR Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$3,000 per month</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>This is a Contract/Temp job</t>
+          <t>This is a Full time job</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Jurong Island And Bukom', ',West Region']</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1250,32 +1250,32 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>URGENT!!! HR Executive (Recruitment / AWS + VB / MNC)</t>
+          <t>ASSISTANT MEMBERSHIP SERVICES EXECUTIVE</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>81996948</t>
+          <t>81996957</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>TRUST RECRUIT PTE. LTD.</t>
+          <t>SAFRA National Service Association</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>This is a Full time job</t>
+          <t>This is a Contract/Temp job</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>['Tai Seng', ',North-East Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1287,22 +1287,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>*URGENT* Technician (Fabrication/ Kaki Bukit/ $2,200)_SPBT</t>
+          <t>URGENT!!! HR Executive (Recruitment / AWS + VB / MNC)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>81996942</t>
+          <t>81996948</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ScienTec Consulting Pte Ltd</t>
+          <t>TRUST RECRUIT PTE. LTD.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SGD 1800 - 2200 per annum, AL, MC, AWS, VB</t>
+          <t>$3,000 – $3,500 per month</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>['Bedok', ',East Region']</t>
+          <t>['Tai Seng', ',North-East Region']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1324,22 +1324,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Executive/Senior Executive Trade Marketing (Based in Singapore)</t>
+          <t>*URGENT* Technician (Fabrication/ Kaki Bukit/ $2,200)_SPBT</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>81996941</t>
+          <t>81996942</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Etika Group of Companies</t>
+          <t>ScienTec Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>$2,800 – $4,000 per month</t>
+          <t>SGD 1800 - 2200 per annum, AL, MC, AWS, VB</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>['Kaki Bukit', ',East Region']</t>
+          <t>['Bedok', ',East Region']</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1361,22 +1361,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>General Affairs Service Executive (Central, Up to $4,500)</t>
+          <t>Executive/Senior Executive Trade Marketing (Based in Singapore)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>81996927</t>
+          <t>81996941</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Good Job Creations (Singapore) Pte Ltd</t>
+          <t>Etika Group of Companies</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>$3,000 - $4,500 (CBD, with bonus)</t>
+          <t>$2,800 – $4,000 per month</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>['Raffles Place', ',Central Region']</t>
+          <t>['Kaki Bukit', ',East Region']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1398,22 +1398,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Lorry Driver (Class 4/Islandwide/Gross up to $3000)</t>
+          <t>General Affairs Service Executive (Central, Up to $4,500)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>81996909</t>
+          <t>81996927</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>Good Job Creations (Singapore) Pte Ltd</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>$2,500 – $3,000 per month</t>
+          <t>$3,000 - $4,500 (CBD, with bonus)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Raffles Place', ',Central Region']</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1435,22 +1435,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Assistant Project Engineer, PMO (ARTC)</t>
+          <t>Lorry Driver (Class 4/Islandwide/Gross up to $3000)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>81996901</t>
+          <t>81996909</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Agency for Science, Technology and Research (A*STAR)</t>
+          <t>CVista HR Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$2,500 – $3,000 per month</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1460,7 +1460,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>['Pioneer', ',West Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1472,17 +1472,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Executive / Senior Executive, Engagement (Corp, Govt)</t>
+          <t>Assistant Project Engineer, PMO (ARTC)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>81996877</t>
+          <t>81996901</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>MINDSG LTD</t>
+          <t>Agency for Science, Technology and Research (A*STAR)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1497,29 +1497,29 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>['Queenstown', ',Central Region']</t>
+          <t>['Pioneer', ',West Region']</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Field Service Technician (Depot)</t>
+          <t>Executive / Senior Executive, Engagement (Corp, Govt)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>81996857</t>
+          <t>81996877</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Smiths Detection Malaysia Sdn Bhd</t>
+          <t>MINDSG LTD</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1534,34 +1534,34 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>['Singapore River', ',Central Region']</t>
+          <t>['Queenstown', ',Central Region']</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>*URGENT* Pharmacy Technician (Office Hours, Clinic/Hospital) #HRY</t>
+          <t>Field Service Technician (Depot)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>81996846</t>
+          <t>81996857</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Private Advertiser</t>
+          <t>Smiths Detection Malaysia Sdn Bhd</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>$3,000 – $4,000 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1571,34 +1571,34 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Singapore River', ',Central Region']</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Field Service Engineer (HVAC/ Mechanical Engineering)</t>
+          <t>*URGENT* Pharmacy Technician (Office Hours, Clinic/Hospital) #HRY</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>81996845</t>
+          <t>81996846</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Pasona Singapore Pte. Ltd.</t>
+          <t>Private Advertiser</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>$3,400 – $5,000 per month</t>
+          <t>$3,000 – $4,000 per month</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1608,34 +1608,34 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>['Tuas', ',West Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Talent Acquisition Manager (Blockchain) (Town, up to $6,700 + Bonus)</t>
+          <t>Field Service Engineer (HVAC/ Mechanical Engineering)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>81996844</t>
+          <t>81996845</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Good Job Creations (Singapore) Pte Ltd</t>
+          <t>Pasona Singapore Pte. Ltd.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>$5,000 - $6,700 (Central, with Bonus)</t>
+          <t>$3,400 – $5,000 per month</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1645,29 +1645,29 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>['Orchard', ',Central Region']</t>
+          <t>['Tuas', ',West Region']</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Senior Planning Engineer ( Waterfront Project )</t>
+          <t>Social Worker (CREST / COMIT)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>81997354</t>
+          <t>81997512</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>China Jingye Engineering Corporation Limited (Singapore Branch)</t>
+          <t>Viriya Community Services</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1682,29 +1682,29 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>['Sentosa', ',Central Region']</t>
+          <t>['West Region']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>29m ago</t>
+          <t>36m ago</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Security Systems Project Director</t>
+          <t>Senior Planning Engineer ( Waterfront Project )</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>81997351</t>
+          <t>81997354</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CERTIS GROUP - GHR</t>
+          <t>China Jingye Engineering Corporation Limited (Singapore Branch)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1719,34 +1719,34 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>['Commonwealth', ',Central Region']</t>
+          <t>['Sentosa', ',Central Region']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>29m ago</t>
+          <t>58m ago</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Store Assistant</t>
+          <t>Security Systems Project Director</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>81997313</t>
+          <t>81997351</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SIMCC PTE LTD</t>
+          <t>CERTIS GROUP - GHR</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>$2,000 – $2,500 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1756,34 +1756,34 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Commonwealth', ',Central Region']</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>34m ago</t>
+          <t>58m ago</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PUBLIC RELATIONS OFFICER – CONSTRUCTION</t>
+          <t>Store Assistant</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>81997306</t>
+          <t>81997313</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>People Profilers Pte Ltd</t>
+          <t>SIMCC PTE LTD</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>$2,500 – $3,100 per month</t>
+          <t>$2,000 – $2,500 per month</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1798,29 +1798,29 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>37m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Executive / Senior Executive - Retail Campaign Marketing</t>
+          <t>PUBLIC RELATIONS OFFICER – CONSTRUCTION</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>81997291</t>
+          <t>81997306</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Lagardere Travel Retail Singapore Pte Ltd</t>
+          <t>People Profilers Pte Ltd</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$2,500 – $3,100 per month</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1830,34 +1830,34 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>['Paya Lebar', ',East Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>41m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Project Manager (Security Technology)</t>
+          <t>Executive / Senior Executive - Retail Campaign Marketing</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>81997279</t>
+          <t>81997291</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CERTIS GROUP - GHR</t>
+          <t>Lagardere Travel Retail Singapore Pte Ltd</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>$5,000 – $7,500 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1867,34 +1867,34 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>['Commonwealth', ',Central Region']</t>
+          <t>['Paya Lebar', ',East Region']</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>43m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Accountant</t>
+          <t>Project Manager (Security Technology)</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>81997278</t>
+          <t>81997279</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>City Developments Limited</t>
+          <t>CERTIS GROUP - GHR</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$5,000 – $7,500 per month</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1904,34 +1904,34 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Commonwealth', ',Central Region']</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>44m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Private Bus Driver (Class 4/BDVL/Gross up to $3500)</t>
+          <t>Accountant</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>81997121</t>
+          <t>81997278</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>City Developments Limited</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>$2,500 – $3,500 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1946,29 +1946,29 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>52m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Executive / Senior Executive, Property Management</t>
+          <t>Private Bus Driver (Class 4/BDVL/Gross up to $3500)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>81997091</t>
+          <t>81997121</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>City Developments Limited</t>
+          <t>CVista HR Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$2,500 – $3,500 per month</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1983,24 +1983,24 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>55m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Sales Consultant</t>
+          <t>Executive / Senior Executive, Property Management</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>81997077</t>
+          <t>81997091</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Trusty Cars Ltd.</t>
+          <t>City Developments Limited</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2015,34 +2015,34 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>['Bishan', ',Central Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>57m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CUSTOMER SERVICE EXECUTIVE – SWISS MNC ($3K + AWS + 2 months Bonus)</t>
+          <t>Sales Consultant</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>81997068</t>
+          <t>81997077</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>People Profilers Pte Ltd</t>
+          <t>Trusty Cars Ltd.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>$2,200 – $3,200 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>['West Region']</t>
+          <t>['Bishan', ',Central Region']</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2064,22 +2064,22 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Bus Driver (Class 4/Islandwide/Basic+OT=Gross up to $5000/fixed shift)</t>
+          <t>CUSTOMER SERVICE EXECUTIVE – SWISS MNC ($3K + AWS + 2 months Bonus)</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>81997051</t>
+          <t>81997068</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>People Profilers Pte Ltd</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>$2,400 per month</t>
+          <t>$2,200 – $3,200 per month</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['West Region']</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2101,32 +2101,32 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Accounts &amp; Admin Executive - short contract (Engineering/3.6k/5 days)</t>
+          <t>Bus Driver (Class 4/Islandwide/Basic+OT=Gross up to $5000/fixed shift)</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>81997037</t>
+          <t>81997051</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>RECRUIT FAST PTE. LTD.</t>
+          <t>CVista HR Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>$3,000 – $3,600 per month</t>
+          <t>$2,400 per month</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>This is a Contract/Temp job</t>
+          <t>This is a Full time job</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>['West Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2138,32 +2138,32 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Bus Driver (Class 4/BDVL/Gross up to $2850/Rotating shift/Islandwide)</t>
+          <t>Accounts &amp; Admin Executive - short contract (Engineering/3.6k/5 days)</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>81997030</t>
+          <t>81997037</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>RECRUIT FAST PTE. LTD.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>$1,800 – $2,200 per month</t>
+          <t>$3,000 – $3,600 per month</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>This is a Full time job</t>
+          <t>This is a Contract/Temp job</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['West Region']</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2175,22 +2175,22 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Sales Executive (Based in Singapore)</t>
+          <t>Bus Driver (Class 4/BDVL/Gross up to $2850/Rotating shift/Islandwide)</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>81997023</t>
+          <t>81997030</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Etika Group of Companies</t>
+          <t>CVista HR Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>$2,500 – $3,000 per month</t>
+          <t>$1,800 – $2,200 per month</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>['Kaki Bukit', ',East Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2212,22 +2212,22 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Senior Mechanical Engineer (Semiconductor)</t>
+          <t>Sales Executive (Based in Singapore)</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>81997020</t>
+          <t>81997023</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Talent Spot Group Pte Ltd</t>
+          <t>Etika Group of Companies</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>$8,000 – $10,000 per month</t>
+          <t>$2,500 – $3,000 per month</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>['North Region']</t>
+          <t>['Kaki Bukit', ',East Region']</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2249,22 +2249,22 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Lift Technician ( 5 Days  / Islandwide / Up to $3800 )</t>
+          <t>Senior Mechanical Engineer (Semiconductor)</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>81997004</t>
+          <t>81997020</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ALWAYSHIRED PTE. LTD.</t>
+          <t>Talent Spot Group Pte Ltd</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>$3,000 – $4,000 per month</t>
+          <t>$8,000 – $10,000 per month</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2274,7 +2274,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>['Kallang', ',Central Region']</t>
+          <t>['North Region']</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2286,22 +2286,22 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Sales Engineer</t>
+          <t>Lift Technician ( 5 Days  / Islandwide / Up to $3800 )</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>81983111</t>
+          <t>81997004</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Electronics &amp; Engineering Pte Ltd</t>
+          <t>ALWAYSHIRED PTE. LTD.</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$3,000 – $4,000 per month</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>['Outram', ',Central Region']</t>
+          <t>['Kallang', ',Central Region']</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2323,22 +2323,22 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Accountant (Based in Singapore)</t>
+          <t>Sales Engineer</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>81996973</t>
+          <t>81983111</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Etika Group of Companies</t>
+          <t>Electronics &amp; Engineering Pte Ltd</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>$3,000 – $4,500 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2348,7 +2348,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>['Kaki Bukit', ',East Region']</t>
+          <t>['Outram', ',Central Region']</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2360,22 +2360,22 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Logistics Driver (SG only/Pulau Bukom/Class 4/Forklift/Up to $3000)</t>
+          <t>Accountant (Based in Singapore)</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>81996969</t>
+          <t>81996973</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>Etika Group of Companies</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>$3,000 per month</t>
+          <t>$3,000 – $4,500 per month</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>['Jurong Island And Bukom', ',West Region']</t>
+          <t>['Kaki Bukit', ',East Region']</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2397,32 +2397,32 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ASSISTANT MEMBERSHIP SERVICES EXECUTIVE</t>
+          <t>Logistics Driver (SG only/Pulau Bukom/Class 4/Forklift/Up to $3000)</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>81996957</t>
+          <t>81996969</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>SAFRA National Service Association</t>
+          <t>CVista HR Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$3,000 per month</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>This is a Contract/Temp job</t>
+          <t>This is a Full time job</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Jurong Island And Bukom', ',West Region']</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2434,32 +2434,32 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>URGENT!!! HR Executive (Recruitment / AWS + VB / MNC)</t>
+          <t>ASSISTANT MEMBERSHIP SERVICES EXECUTIVE</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>81996948</t>
+          <t>81996957</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>TRUST RECRUIT PTE. LTD.</t>
+          <t>SAFRA National Service Association</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>This is a Full time job</t>
+          <t>This is a Contract/Temp job</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>['Tai Seng', ',North-East Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2471,22 +2471,22 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>*URGENT* Technician (Fabrication/ Kaki Bukit/ $2,200)_SPBT</t>
+          <t>URGENT!!! HR Executive (Recruitment / AWS + VB / MNC)</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>81996942</t>
+          <t>81996948</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>ScienTec Consulting Pte Ltd</t>
+          <t>TRUST RECRUIT PTE. LTD.</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>SGD 1800 - 2200 per annum, AL, MC, AWS, VB</t>
+          <t>$3,000 – $3,500 per month</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2496,7 +2496,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>['Bedok', ',East Region']</t>
+          <t>['Tai Seng', ',North-East Region']</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2508,22 +2508,22 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Executive/Senior Executive Trade Marketing (Based in Singapore)</t>
+          <t>*URGENT* Technician (Fabrication/ Kaki Bukit/ $2,200)_SPBT</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>81996941</t>
+          <t>81996942</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Etika Group of Companies</t>
+          <t>ScienTec Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>$2,800 – $4,000 per month</t>
+          <t>SGD 1800 - 2200 per annum, AL, MC, AWS, VB</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2533,7 +2533,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>['Kaki Bukit', ',East Region']</t>
+          <t>['Bedok', ',East Region']</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2545,22 +2545,22 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>General Affairs Service Executive (Central, Up to $4,500)</t>
+          <t>Executive/Senior Executive Trade Marketing (Based in Singapore)</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>81996927</t>
+          <t>81996941</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Good Job Creations (Singapore) Pte Ltd</t>
+          <t>Etika Group of Companies</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>$3,000 - $4,500 (CBD, with bonus)</t>
+          <t>$2,800 – $4,000 per month</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2570,7 +2570,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>['Raffles Place', ',Central Region']</t>
+          <t>['Kaki Bukit', ',East Region']</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2582,22 +2582,22 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Lorry Driver (Class 4/Islandwide/Gross up to $3000)</t>
+          <t>General Affairs Service Executive (Central, Up to $4,500)</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>81996909</t>
+          <t>81996927</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>Good Job Creations (Singapore) Pte Ltd</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>$2,500 – $3,000 per month</t>
+          <t>$3,000 - $4,500 (CBD, with bonus)</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Raffles Place', ',Central Region']</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2619,22 +2619,22 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Assistant Project Engineer, PMO (ARTC)</t>
+          <t>Lorry Driver (Class 4/Islandwide/Gross up to $3000)</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>81996901</t>
+          <t>81996909</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Agency for Science, Technology and Research (A*STAR)</t>
+          <t>CVista HR Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$2,500 – $3,000 per month</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>['Pioneer', ',West Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2656,17 +2656,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Executive / Senior Executive, Engagement (Corp, Govt)</t>
+          <t>Assistant Project Engineer, PMO (ARTC)</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>81996877</t>
+          <t>81996901</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>MINDSG LTD</t>
+          <t>Agency for Science, Technology and Research (A*STAR)</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2681,29 +2681,29 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>['Queenstown', ',Central Region']</t>
+          <t>['Pioneer', ',West Region']</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Field Service Technician (Depot)</t>
+          <t>Executive / Senior Executive, Engagement (Corp, Govt)</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>81996857</t>
+          <t>81996877</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Smiths Detection Malaysia Sdn Bhd</t>
+          <t>MINDSG LTD</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2718,34 +2718,34 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>['Singapore River', ',Central Region']</t>
+          <t>['Queenstown', ',Central Region']</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>*URGENT* Pharmacy Technician (Office Hours, Clinic/Hospital) #HRY</t>
+          <t>Field Service Technician (Depot)</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>81996846</t>
+          <t>81996857</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Private Advertiser</t>
+          <t>Smiths Detection Malaysia Sdn Bhd</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>$3,000 – $4,000 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2755,34 +2755,34 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Singapore River', ',Central Region']</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Field Service Engineer (HVAC/ Mechanical Engineering)</t>
+          <t>*URGENT* Pharmacy Technician (Office Hours, Clinic/Hospital) #HRY</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>81996845</t>
+          <t>81996846</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Pasona Singapore Pte. Ltd.</t>
+          <t>Private Advertiser</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>$3,400 – $5,000 per month</t>
+          <t>$3,000 – $4,000 per month</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2792,34 +2792,34 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>['Tuas', ',West Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Talent Acquisition Manager (Blockchain) (Town, up to $6,700 + Bonus)</t>
+          <t>Field Service Engineer (HVAC/ Mechanical Engineering)</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>81996844</t>
+          <t>81996845</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Good Job Creations (Singapore) Pte Ltd</t>
+          <t>Pasona Singapore Pte. Ltd.</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>$5,000 - $6,700 (Central, with Bonus)</t>
+          <t>$3,400 – $5,000 per month</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2829,29 +2829,29 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>['Orchard', ',Central Region']</t>
+          <t>['Tuas', ',West Region']</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Senior Planning Engineer ( Waterfront Project )</t>
+          <t>Social Worker (CREST / COMIT)</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>81997354</t>
+          <t>81997512</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>China Jingye Engineering Corporation Limited (Singapore Branch)</t>
+          <t>Viriya Community Services</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2866,29 +2866,29 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>['Sentosa', ',Central Region']</t>
+          <t>['West Region']</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>29m ago</t>
+          <t>36m ago</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Security Systems Project Director</t>
+          <t>Senior Planning Engineer ( Waterfront Project )</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>81997351</t>
+          <t>81997354</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>CERTIS GROUP - GHR</t>
+          <t>China Jingye Engineering Corporation Limited (Singapore Branch)</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2903,34 +2903,34 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>['Commonwealth', ',Central Region']</t>
+          <t>['Sentosa', ',Central Region']</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>29m ago</t>
+          <t>58m ago</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Store Assistant</t>
+          <t>Security Systems Project Director</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>81997313</t>
+          <t>81997351</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>SIMCC PTE LTD</t>
+          <t>CERTIS GROUP - GHR</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>$2,000 – $2,500 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2940,34 +2940,34 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Commonwealth', ',Central Region']</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>34m ago</t>
+          <t>58m ago</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>PUBLIC RELATIONS OFFICER – CONSTRUCTION</t>
+          <t>Store Assistant</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>81997306</t>
+          <t>81997313</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>People Profilers Pte Ltd</t>
+          <t>SIMCC PTE LTD</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>$2,500 – $3,100 per month</t>
+          <t>$2,000 – $2,500 per month</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2982,29 +2982,29 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>37m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Executive / Senior Executive - Retail Campaign Marketing</t>
+          <t>PUBLIC RELATIONS OFFICER – CONSTRUCTION</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>81997291</t>
+          <t>81997306</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Lagardere Travel Retail Singapore Pte Ltd</t>
+          <t>People Profilers Pte Ltd</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$2,500 – $3,100 per month</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3014,34 +3014,34 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>['Paya Lebar', ',East Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>41m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Project Manager (Security Technology)</t>
+          <t>Executive / Senior Executive - Retail Campaign Marketing</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>81997279</t>
+          <t>81997291</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>CERTIS GROUP - GHR</t>
+          <t>Lagardere Travel Retail Singapore Pte Ltd</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>$5,000 – $7,500 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3051,34 +3051,34 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>['Commonwealth', ',Central Region']</t>
+          <t>['Paya Lebar', ',East Region']</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>43m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Accountant</t>
+          <t>Project Manager (Security Technology)</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>81997278</t>
+          <t>81997279</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>City Developments Limited</t>
+          <t>CERTIS GROUP - GHR</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$5,000 – $7,500 per month</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3088,34 +3088,34 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Commonwealth', ',Central Region']</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>44m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Private Bus Driver (Class 4/BDVL/Gross up to $3500)</t>
+          <t>Accountant</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>81997121</t>
+          <t>81997278</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>City Developments Limited</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>$2,500 – $3,500 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3130,29 +3130,29 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>52m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Executive / Senior Executive, Property Management</t>
+          <t>Private Bus Driver (Class 4/BDVL/Gross up to $3500)</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>81997091</t>
+          <t>81997121</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>City Developments Limited</t>
+          <t>CVista HR Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$2,500 – $3,500 per month</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3167,24 +3167,24 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>55m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Sales Consultant</t>
+          <t>Executive / Senior Executive, Property Management</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>81997077</t>
+          <t>81997091</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Trusty Cars Ltd.</t>
+          <t>City Developments Limited</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3199,34 +3199,34 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>['Bishan', ',Central Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>57m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>CUSTOMER SERVICE EXECUTIVE – SWISS MNC ($3K + AWS + 2 months Bonus)</t>
+          <t>Sales Consultant</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>81997068</t>
+          <t>81997077</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>People Profilers Pte Ltd</t>
+          <t>Trusty Cars Ltd.</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>$2,200 – $3,200 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3236,7 +3236,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>['West Region']</t>
+          <t>['Bishan', ',Central Region']</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -3248,22 +3248,22 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Bus Driver (Class 4/Islandwide/Basic+OT=Gross up to $5000/fixed shift)</t>
+          <t>CUSTOMER SERVICE EXECUTIVE – SWISS MNC ($3K + AWS + 2 months Bonus)</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>81997051</t>
+          <t>81997068</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>People Profilers Pte Ltd</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>$2,400 per month</t>
+          <t>$2,200 – $3,200 per month</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3273,7 +3273,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['West Region']</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -3285,32 +3285,32 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Accounts &amp; Admin Executive - short contract (Engineering/3.6k/5 days)</t>
+          <t>Bus Driver (Class 4/Islandwide/Basic+OT=Gross up to $5000/fixed shift)</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>81997037</t>
+          <t>81997051</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>RECRUIT FAST PTE. LTD.</t>
+          <t>CVista HR Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>$3,000 – $3,600 per month</t>
+          <t>$2,400 per month</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>This is a Contract/Temp job</t>
+          <t>This is a Full time job</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>['West Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -3322,32 +3322,32 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Bus Driver (Class 4/BDVL/Gross up to $2850/Rotating shift/Islandwide)</t>
+          <t>Accounts &amp; Admin Executive - short contract (Engineering/3.6k/5 days)</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>81997030</t>
+          <t>81997037</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>RECRUIT FAST PTE. LTD.</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>$1,800 – $2,200 per month</t>
+          <t>$3,000 – $3,600 per month</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>This is a Full time job</t>
+          <t>This is a Contract/Temp job</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['West Region']</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -3359,22 +3359,22 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Sales Executive (Based in Singapore)</t>
+          <t>Bus Driver (Class 4/BDVL/Gross up to $2850/Rotating shift/Islandwide)</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>81997023</t>
+          <t>81997030</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Etika Group of Companies</t>
+          <t>CVista HR Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>$2,500 – $3,000 per month</t>
+          <t>$1,800 – $2,200 per month</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3384,7 +3384,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>['Kaki Bukit', ',East Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -3396,22 +3396,22 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Senior Mechanical Engineer (Semiconductor)</t>
+          <t>Sales Executive (Based in Singapore)</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>81997020</t>
+          <t>81997023</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Talent Spot Group Pte Ltd</t>
+          <t>Etika Group of Companies</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>$8,000 – $10,000 per month</t>
+          <t>$2,500 – $3,000 per month</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3421,7 +3421,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>['North Region']</t>
+          <t>['Kaki Bukit', ',East Region']</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -3433,22 +3433,22 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Lift Technician ( 5 Days  / Islandwide / Up to $3800 )</t>
+          <t>Senior Mechanical Engineer (Semiconductor)</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>81997004</t>
+          <t>81997020</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>ALWAYSHIRED PTE. LTD.</t>
+          <t>Talent Spot Group Pte Ltd</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>$3,000 – $4,000 per month</t>
+          <t>$8,000 – $10,000 per month</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>['Kallang', ',Central Region']</t>
+          <t>['North Region']</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -3470,22 +3470,22 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Sales Engineer</t>
+          <t>Lift Technician ( 5 Days  / Islandwide / Up to $3800 )</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>81983111</t>
+          <t>81997004</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Electronics &amp; Engineering Pte Ltd</t>
+          <t>ALWAYSHIRED PTE. LTD.</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$3,000 – $4,000 per month</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3495,7 +3495,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>['Outram', ',Central Region']</t>
+          <t>['Kallang', ',Central Region']</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -3507,22 +3507,22 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Accountant (Based in Singapore)</t>
+          <t>Sales Engineer</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>81996973</t>
+          <t>81983111</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Etika Group of Companies</t>
+          <t>Electronics &amp; Engineering Pte Ltd</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>$3,000 – $4,500 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3532,7 +3532,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>['Kaki Bukit', ',East Region']</t>
+          <t>['Outram', ',Central Region']</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -3544,22 +3544,22 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Logistics Driver (SG only/Pulau Bukom/Class 4/Forklift/Up to $3000)</t>
+          <t>Accountant (Based in Singapore)</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>81996969</t>
+          <t>81996973</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>Etika Group of Companies</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>$3,000 per month</t>
+          <t>$3,000 – $4,500 per month</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3569,7 +3569,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>['Jurong Island And Bukom', ',West Region']</t>
+          <t>['Kaki Bukit', ',East Region']</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -3581,32 +3581,32 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ASSISTANT MEMBERSHIP SERVICES EXECUTIVE</t>
+          <t>Logistics Driver (SG only/Pulau Bukom/Class 4/Forklift/Up to $3000)</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>81996957</t>
+          <t>81996969</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>SAFRA National Service Association</t>
+          <t>CVista HR Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$3,000 per month</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>This is a Contract/Temp job</t>
+          <t>This is a Full time job</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Jurong Island And Bukom', ',West Region']</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -3618,32 +3618,32 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>URGENT!!! HR Executive (Recruitment / AWS + VB / MNC)</t>
+          <t>ASSISTANT MEMBERSHIP SERVICES EXECUTIVE</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>81996948</t>
+          <t>81996957</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>TRUST RECRUIT PTE. LTD.</t>
+          <t>SAFRA National Service Association</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>This is a Full time job</t>
+          <t>This is a Contract/Temp job</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>['Tai Seng', ',North-East Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -3655,22 +3655,22 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>*URGENT* Technician (Fabrication/ Kaki Bukit/ $2,200)_SPBT</t>
+          <t>URGENT!!! HR Executive (Recruitment / AWS + VB / MNC)</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>81996942</t>
+          <t>81996948</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>ScienTec Consulting Pte Ltd</t>
+          <t>TRUST RECRUIT PTE. LTD.</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>SGD 1800 - 2200 per annum, AL, MC, AWS, VB</t>
+          <t>$3,000 – $3,500 per month</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3680,7 +3680,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>['Bedok', ',East Region']</t>
+          <t>['Tai Seng', ',North-East Region']</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -3692,22 +3692,22 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Executive/Senior Executive Trade Marketing (Based in Singapore)</t>
+          <t>*URGENT* Technician (Fabrication/ Kaki Bukit/ $2,200)_SPBT</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>81996941</t>
+          <t>81996942</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Etika Group of Companies</t>
+          <t>ScienTec Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>$2,800 – $4,000 per month</t>
+          <t>SGD 1800 - 2200 per annum, AL, MC, AWS, VB</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3717,7 +3717,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>['Kaki Bukit', ',East Region']</t>
+          <t>['Bedok', ',East Region']</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -3729,22 +3729,22 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>General Affairs Service Executive (Central, Up to $4,500)</t>
+          <t>Executive/Senior Executive Trade Marketing (Based in Singapore)</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>81996927</t>
+          <t>81996941</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Good Job Creations (Singapore) Pte Ltd</t>
+          <t>Etika Group of Companies</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>$3,000 - $4,500 (CBD, with bonus)</t>
+          <t>$2,800 – $4,000 per month</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3754,7 +3754,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>['Raffles Place', ',Central Region']</t>
+          <t>['Kaki Bukit', ',East Region']</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -3766,22 +3766,22 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Lorry Driver (Class 4/Islandwide/Gross up to $3000)</t>
+          <t>General Affairs Service Executive (Central, Up to $4,500)</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>81996909</t>
+          <t>81996927</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>Good Job Creations (Singapore) Pte Ltd</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>$2,500 – $3,000 per month</t>
+          <t>$3,000 - $4,500 (CBD, with bonus)</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3791,7 +3791,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Raffles Place', ',Central Region']</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -3803,22 +3803,22 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Assistant Project Engineer, PMO (ARTC)</t>
+          <t>Lorry Driver (Class 4/Islandwide/Gross up to $3000)</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>81996901</t>
+          <t>81996909</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Agency for Science, Technology and Research (A*STAR)</t>
+          <t>CVista HR Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$2,500 – $3,000 per month</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3828,7 +3828,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>['Pioneer', ',West Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -3840,17 +3840,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Executive / Senior Executive, Engagement (Corp, Govt)</t>
+          <t>Assistant Project Engineer, PMO (ARTC)</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>81996877</t>
+          <t>81996901</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>MINDSG LTD</t>
+          <t>Agency for Science, Technology and Research (A*STAR)</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3865,29 +3865,29 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>['Queenstown', ',Central Region']</t>
+          <t>['Pioneer', ',West Region']</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Field Service Technician (Depot)</t>
+          <t>Executive / Senior Executive, Engagement (Corp, Govt)</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>81996857</t>
+          <t>81996877</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Smiths Detection Malaysia Sdn Bhd</t>
+          <t>MINDSG LTD</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3902,34 +3902,34 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>['Singapore River', ',Central Region']</t>
+          <t>['Queenstown', ',Central Region']</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>*URGENT* Pharmacy Technician (Office Hours, Clinic/Hospital) #HRY</t>
+          <t>Field Service Technician (Depot)</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>81996846</t>
+          <t>81996857</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Private Advertiser</t>
+          <t>Smiths Detection Malaysia Sdn Bhd</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>$3,000 – $4,000 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -3939,34 +3939,34 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Singapore River', ',Central Region']</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Field Service Engineer (HVAC/ Mechanical Engineering)</t>
+          <t>*URGENT* Pharmacy Technician (Office Hours, Clinic/Hospital) #HRY</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>81996845</t>
+          <t>81996846</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Pasona Singapore Pte. Ltd.</t>
+          <t>Private Advertiser</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>$3,400 – $5,000 per month</t>
+          <t>$3,000 – $4,000 per month</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3976,34 +3976,34 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>['Tuas', ',West Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Talent Acquisition Manager (Blockchain) (Town, up to $6,700 + Bonus)</t>
+          <t>Field Service Engineer (HVAC/ Mechanical Engineering)</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>81996844</t>
+          <t>81996845</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Good Job Creations (Singapore) Pte Ltd</t>
+          <t>Pasona Singapore Pte. Ltd.</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>$5,000 - $6,700 (Central, with Bonus)</t>
+          <t>$3,400 – $5,000 per month</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4013,29 +4013,29 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>['Orchard', ',Central Region']</t>
+          <t>['Tuas', ',West Region']</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Senior Planning Engineer ( Waterfront Project )</t>
+          <t>Social Worker (CREST / COMIT)</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>81997354</t>
+          <t>81997512</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>China Jingye Engineering Corporation Limited (Singapore Branch)</t>
+          <t>Viriya Community Services</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4050,29 +4050,29 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>['Sentosa', ',Central Region']</t>
+          <t>['West Region']</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>29m ago</t>
+          <t>36m ago</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Security Systems Project Director</t>
+          <t>Senior Planning Engineer ( Waterfront Project )</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>81997351</t>
+          <t>81997354</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>CERTIS GROUP - GHR</t>
+          <t>China Jingye Engineering Corporation Limited (Singapore Branch)</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4087,34 +4087,34 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>['Commonwealth', ',Central Region']</t>
+          <t>['Sentosa', ',Central Region']</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>29m ago</t>
+          <t>58m ago</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Store Assistant</t>
+          <t>Security Systems Project Director</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>81997313</t>
+          <t>81997351</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>SIMCC PTE LTD</t>
+          <t>CERTIS GROUP - GHR</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>$2,000 – $2,500 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4124,34 +4124,34 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Commonwealth', ',Central Region']</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>34m ago</t>
+          <t>58m ago</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>PUBLIC RELATIONS OFFICER – CONSTRUCTION</t>
+          <t>Store Assistant</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>81997306</t>
+          <t>81997313</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>People Profilers Pte Ltd</t>
+          <t>SIMCC PTE LTD</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>$2,500 – $3,100 per month</t>
+          <t>$2,000 – $2,500 per month</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4166,29 +4166,29 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>37m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Executive / Senior Executive - Retail Campaign Marketing</t>
+          <t>PUBLIC RELATIONS OFFICER – CONSTRUCTION</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>81997291</t>
+          <t>81997306</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Lagardere Travel Retail Singapore Pte Ltd</t>
+          <t>People Profilers Pte Ltd</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$2,500 – $3,100 per month</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4198,34 +4198,34 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>['Paya Lebar', ',East Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>41m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Project Manager (Security Technology)</t>
+          <t>Executive / Senior Executive - Retail Campaign Marketing</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>81997279</t>
+          <t>81997291</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>CERTIS GROUP - GHR</t>
+          <t>Lagardere Travel Retail Singapore Pte Ltd</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>$5,000 – $7,500 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4235,34 +4235,34 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>['Commonwealth', ',Central Region']</t>
+          <t>['Paya Lebar', ',East Region']</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>43m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Accountant</t>
+          <t>Project Manager (Security Technology)</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>81997278</t>
+          <t>81997279</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>City Developments Limited</t>
+          <t>CERTIS GROUP - GHR</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$5,000 – $7,500 per month</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4272,34 +4272,34 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Commonwealth', ',Central Region']</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>44m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Private Bus Driver (Class 4/BDVL/Gross up to $3500)</t>
+          <t>Accountant</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>81997121</t>
+          <t>81997278</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>City Developments Limited</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>$2,500 – $3,500 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4314,29 +4314,29 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>52m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Executive / Senior Executive, Property Management</t>
+          <t>Private Bus Driver (Class 4/BDVL/Gross up to $3500)</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>81997091</t>
+          <t>81997121</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>City Developments Limited</t>
+          <t>CVista HR Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$2,500 – $3,500 per month</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4351,24 +4351,24 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>55m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Sales Consultant</t>
+          <t>Executive / Senior Executive, Property Management</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>81997077</t>
+          <t>81997091</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Trusty Cars Ltd.</t>
+          <t>City Developments Limited</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -4383,34 +4383,34 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>['Bishan', ',Central Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>57m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>CUSTOMER SERVICE EXECUTIVE – SWISS MNC ($3K + AWS + 2 months Bonus)</t>
+          <t>Sales Consultant</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>81997068</t>
+          <t>81997077</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>People Profilers Pte Ltd</t>
+          <t>Trusty Cars Ltd.</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>$2,200 – $3,200 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4420,7 +4420,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>['West Region']</t>
+          <t>['Bishan', ',Central Region']</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -4432,22 +4432,22 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Bus Driver (Class 4/Islandwide/Basic+OT=Gross up to $5000/fixed shift)</t>
+          <t>CUSTOMER SERVICE EXECUTIVE – SWISS MNC ($3K + AWS + 2 months Bonus)</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>81997051</t>
+          <t>81997068</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>People Profilers Pte Ltd</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>$2,400 per month</t>
+          <t>$2,200 – $3,200 per month</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4457,7 +4457,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['West Region']</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -4469,32 +4469,32 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Accounts &amp; Admin Executive - short contract (Engineering/3.6k/5 days)</t>
+          <t>Bus Driver (Class 4/Islandwide/Basic+OT=Gross up to $5000/fixed shift)</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>81997037</t>
+          <t>81997051</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>RECRUIT FAST PTE. LTD.</t>
+          <t>CVista HR Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>$3,000 – $3,600 per month</t>
+          <t>$2,400 per month</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>This is a Contract/Temp job</t>
+          <t>This is a Full time job</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>['West Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -4506,32 +4506,32 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Bus Driver (Class 4/BDVL/Gross up to $2850/Rotating shift/Islandwide)</t>
+          <t>Accounts &amp; Admin Executive - short contract (Engineering/3.6k/5 days)</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>81997030</t>
+          <t>81997037</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>RECRUIT FAST PTE. LTD.</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>$1,800 – $2,200 per month</t>
+          <t>$3,000 – $3,600 per month</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>This is a Full time job</t>
+          <t>This is a Contract/Temp job</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['West Region']</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -4543,22 +4543,22 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Sales Executive (Based in Singapore)</t>
+          <t>Bus Driver (Class 4/BDVL/Gross up to $2850/Rotating shift/Islandwide)</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>81997023</t>
+          <t>81997030</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Etika Group of Companies</t>
+          <t>CVista HR Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>$2,500 – $3,000 per month</t>
+          <t>$1,800 – $2,200 per month</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -4568,7 +4568,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>['Kaki Bukit', ',East Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -4580,22 +4580,22 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Senior Mechanical Engineer (Semiconductor)</t>
+          <t>Sales Executive (Based in Singapore)</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>81997020</t>
+          <t>81997023</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Talent Spot Group Pte Ltd</t>
+          <t>Etika Group of Companies</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>$8,000 – $10,000 per month</t>
+          <t>$2,500 – $3,000 per month</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>['North Region']</t>
+          <t>['Kaki Bukit', ',East Region']</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -4617,22 +4617,22 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Lift Technician ( 5 Days  / Islandwide / Up to $3800 )</t>
+          <t>Senior Mechanical Engineer (Semiconductor)</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>81997004</t>
+          <t>81997020</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>ALWAYSHIRED PTE. LTD.</t>
+          <t>Talent Spot Group Pte Ltd</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>$3,000 – $4,000 per month</t>
+          <t>$8,000 – $10,000 per month</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -4642,7 +4642,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>['Kallang', ',Central Region']</t>
+          <t>['North Region']</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -4654,22 +4654,22 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Sales Engineer</t>
+          <t>Lift Technician ( 5 Days  / Islandwide / Up to $3800 )</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>81983111</t>
+          <t>81997004</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Electronics &amp; Engineering Pte Ltd</t>
+          <t>ALWAYSHIRED PTE. LTD.</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$3,000 – $4,000 per month</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -4679,7 +4679,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>['Outram', ',Central Region']</t>
+          <t>['Kallang', ',Central Region']</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -4691,22 +4691,22 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Accountant (Based in Singapore)</t>
+          <t>Sales Engineer</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>81996973</t>
+          <t>81983111</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Etika Group of Companies</t>
+          <t>Electronics &amp; Engineering Pte Ltd</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>$3,000 – $4,500 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -4716,7 +4716,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>['Kaki Bukit', ',East Region']</t>
+          <t>['Outram', ',Central Region']</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -4728,22 +4728,22 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Logistics Driver (SG only/Pulau Bukom/Class 4/Forklift/Up to $3000)</t>
+          <t>Accountant (Based in Singapore)</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>81996969</t>
+          <t>81996973</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>Etika Group of Companies</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>$3,000 per month</t>
+          <t>$3,000 – $4,500 per month</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -4753,7 +4753,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>['Jurong Island And Bukom', ',West Region']</t>
+          <t>['Kaki Bukit', ',East Region']</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -4765,32 +4765,32 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>ASSISTANT MEMBERSHIP SERVICES EXECUTIVE</t>
+          <t>Logistics Driver (SG only/Pulau Bukom/Class 4/Forklift/Up to $3000)</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>81996957</t>
+          <t>81996969</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>SAFRA National Service Association</t>
+          <t>CVista HR Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$3,000 per month</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>This is a Contract/Temp job</t>
+          <t>This is a Full time job</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Jurong Island And Bukom', ',West Region']</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -4802,32 +4802,32 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>URGENT!!! HR Executive (Recruitment / AWS + VB / MNC)</t>
+          <t>ASSISTANT MEMBERSHIP SERVICES EXECUTIVE</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>81996948</t>
+          <t>81996957</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>TRUST RECRUIT PTE. LTD.</t>
+          <t>SAFRA National Service Association</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>This is a Full time job</t>
+          <t>This is a Contract/Temp job</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>['Tai Seng', ',North-East Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -4839,22 +4839,22 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>*URGENT* Technician (Fabrication/ Kaki Bukit/ $2,200)_SPBT</t>
+          <t>URGENT!!! HR Executive (Recruitment / AWS + VB / MNC)</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>81996942</t>
+          <t>81996948</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>ScienTec Consulting Pte Ltd</t>
+          <t>TRUST RECRUIT PTE. LTD.</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>SGD 1800 - 2200 per annum, AL, MC, AWS, VB</t>
+          <t>$3,000 – $3,500 per month</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -4864,7 +4864,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>['Bedok', ',East Region']</t>
+          <t>['Tai Seng', ',North-East Region']</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -4876,22 +4876,22 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Executive/Senior Executive Trade Marketing (Based in Singapore)</t>
+          <t>*URGENT* Technician (Fabrication/ Kaki Bukit/ $2,200)_SPBT</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>81996941</t>
+          <t>81996942</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Etika Group of Companies</t>
+          <t>ScienTec Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>$2,800 – $4,000 per month</t>
+          <t>SGD 1800 - 2200 per annum, AL, MC, AWS, VB</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -4901,7 +4901,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>['Kaki Bukit', ',East Region']</t>
+          <t>['Bedok', ',East Region']</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -4913,22 +4913,22 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>General Affairs Service Executive (Central, Up to $4,500)</t>
+          <t>Executive/Senior Executive Trade Marketing (Based in Singapore)</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>81996927</t>
+          <t>81996941</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Good Job Creations (Singapore) Pte Ltd</t>
+          <t>Etika Group of Companies</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>$3,000 - $4,500 (CBD, with bonus)</t>
+          <t>$2,800 – $4,000 per month</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>['Raffles Place', ',Central Region']</t>
+          <t>['Kaki Bukit', ',East Region']</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -4950,22 +4950,22 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Lorry Driver (Class 4/Islandwide/Gross up to $3000)</t>
+          <t>General Affairs Service Executive (Central, Up to $4,500)</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>81996909</t>
+          <t>81996927</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>Good Job Creations (Singapore) Pte Ltd</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>$2,500 – $3,000 per month</t>
+          <t>$3,000 - $4,500 (CBD, with bonus)</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -4975,7 +4975,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Raffles Place', ',Central Region']</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -4987,22 +4987,22 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Assistant Project Engineer, PMO (ARTC)</t>
+          <t>Lorry Driver (Class 4/Islandwide/Gross up to $3000)</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>81996901</t>
+          <t>81996909</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Agency for Science, Technology and Research (A*STAR)</t>
+          <t>CVista HR Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$2,500 – $3,000 per month</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5012,7 +5012,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>['Pioneer', ',West Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -5024,17 +5024,17 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Executive / Senior Executive, Engagement (Corp, Govt)</t>
+          <t>Assistant Project Engineer, PMO (ARTC)</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>81996877</t>
+          <t>81996901</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>MINDSG LTD</t>
+          <t>Agency for Science, Technology and Research (A*STAR)</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -5049,29 +5049,29 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>['Queenstown', ',Central Region']</t>
+          <t>['Pioneer', ',West Region']</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Field Service Technician (Depot)</t>
+          <t>Executive / Senior Executive, Engagement (Corp, Govt)</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>81996857</t>
+          <t>81996877</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Smiths Detection Malaysia Sdn Bhd</t>
+          <t>MINDSG LTD</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -5086,34 +5086,34 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>['Singapore River', ',Central Region']</t>
+          <t>['Queenstown', ',Central Region']</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>*URGENT* Pharmacy Technician (Office Hours, Clinic/Hospital) #HRY</t>
+          <t>Field Service Technician (Depot)</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>81996846</t>
+          <t>81996857</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Private Advertiser</t>
+          <t>Smiths Detection Malaysia Sdn Bhd</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>$3,000 – $4,000 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -5123,34 +5123,34 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Singapore River', ',Central Region']</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Field Service Engineer (HVAC/ Mechanical Engineering)</t>
+          <t>*URGENT* Pharmacy Technician (Office Hours, Clinic/Hospital) #HRY</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>81996845</t>
+          <t>81996846</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Pasona Singapore Pte. Ltd.</t>
+          <t>Private Advertiser</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>$3,400 – $5,000 per month</t>
+          <t>$3,000 – $4,000 per month</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5160,34 +5160,34 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>['Tuas', ',West Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Talent Acquisition Manager (Blockchain) (Town, up to $6,700 + Bonus)</t>
+          <t>Field Service Engineer (HVAC/ Mechanical Engineering)</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>81996844</t>
+          <t>81996845</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Good Job Creations (Singapore) Pte Ltd</t>
+          <t>Pasona Singapore Pte. Ltd.</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>$5,000 - $6,700 (Central, with Bonus)</t>
+          <t>$3,400 – $5,000 per month</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -5197,12 +5197,12 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>['Orchard', ',Central Region']</t>
+          <t>['Tuas', ',West Region']</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
@@ -5239,7 +5239,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>29m ago</t>
+          <t>58m ago</t>
         </is>
       </c>
     </row>
@@ -5276,7 +5276,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>29m ago</t>
+          <t>58m ago</t>
         </is>
       </c>
     </row>
@@ -5313,7 +5313,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>34m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
@@ -5350,7 +5350,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>37m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
@@ -5387,7 +5387,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>41m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
@@ -5424,7 +5424,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>43m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
@@ -5461,7 +5461,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>44m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
@@ -5498,7 +5498,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>52m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
@@ -5535,7 +5535,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>55m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
@@ -5572,7 +5572,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>57m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
@@ -6201,7 +6201,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
@@ -6238,7 +6238,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
@@ -6275,7 +6275,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
@@ -6312,7 +6312,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
@@ -6349,7 +6349,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
@@ -6386,7 +6386,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
@@ -6423,7 +6423,7 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>29m ago</t>
+          <t>58m ago</t>
         </is>
       </c>
     </row>
@@ -6460,7 +6460,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>29m ago</t>
+          <t>58m ago</t>
         </is>
       </c>
     </row>
@@ -6497,7 +6497,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>34m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
@@ -6534,7 +6534,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>37m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
@@ -6571,7 +6571,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>41m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
@@ -6608,7 +6608,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>43m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>44m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
@@ -6682,7 +6682,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>52m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
@@ -6719,7 +6719,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>55m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
@@ -6756,7 +6756,7 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>57m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
@@ -7385,7 +7385,7 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
@@ -7422,7 +7422,7 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
@@ -7459,7 +7459,7 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
@@ -7496,7 +7496,7 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
@@ -7533,7 +7533,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
@@ -7570,29 +7570,29 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Social Worker (CREST / COMIT)</t>
+          <t>Restaurant Supervisor</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>81997512</t>
+          <t>81998116</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Viriya Community Services</t>
+          <t>MIZUKI F &amp; B PTE LTD</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$3,000 – $4,000 per month</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -7602,29 +7602,29 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>['West Region']</t>
+          <t>['Orchard', ',Central Region']</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>8m ago</t>
+          <t>Just now</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Senior Planning Engineer ( Waterfront Project )</t>
+          <t>Assistant Manager, Fund Accounting (Private Equity)</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>81997354</t>
+          <t>81998106</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>China Jingye Engineering Corporation Limited (Singapore Branch)</t>
+          <t>Vistra Corporate Services (SEA) Pte Ltd</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -7639,29 +7639,29 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>['Sentosa', ',Central Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>29m ago</t>
+          <t>2m ago</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Security Systems Project Director</t>
+          <t>Executive / Senior Engineer (Gas Pipelines &amp; Operations Maintenance)</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>81997351</t>
+          <t>81998062</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>CERTIS GROUP - GHR</t>
+          <t>Singapore Power Ltd</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -7676,34 +7676,34 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>['Commonwealth', ',Central Region']</t>
+          <t>['North Region']</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>29m ago</t>
+          <t>4m ago</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Store Assistant</t>
+          <t>Financial Controller - Hospitality</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>81997313</t>
+          <t>81998060</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>SIMCC PTE LTD</t>
+          <t>Michael Page International Pte Ltd</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>$2,000 – $2,500 per month</t>
+          <t>10000</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -7718,29 +7718,29 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>34m ago</t>
+          <t>5m ago</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>PUBLIC RELATIONS OFFICER – CONSTRUCTION</t>
+          <t>Clinical Assistant</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>81997306</t>
+          <t>81998002</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>People Profilers Pte Ltd</t>
+          <t>Alpha Chiropractic Health Pte Ltd</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>$2,500 – $3,100 per month</t>
+          <t>$2,000 – $2,800 per month</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -7755,24 +7755,24 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>37m ago</t>
+          <t>6m ago</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Executive / Senior Executive - Retail Campaign Marketing</t>
+          <t>Finance Manager - Technology &amp; Manufacturing</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>81997291</t>
+          <t>81998037</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Lagardere Travel Retail Singapore Pte Ltd</t>
+          <t>Michael Page International Pte Ltd</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -7787,34 +7787,34 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>['Paya Lebar', ',East Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>41m ago</t>
+          <t>6m ago</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Project Manager (Security Technology)</t>
+          <t>Engineering Technician (Test / Debug / East / Salary UP 3,200)</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>81997279</t>
+          <t>81997994</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>CERTIS GROUP - GHR</t>
+          <t>ALWAYSHIRED PTE. LTD.</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>$5,000 – $7,500 per month</t>
+          <t>$2,400 – $3,200 per month</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -7824,34 +7824,34 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>['Commonwealth', ',Central Region']</t>
+          <t>['Tampines', ',East Region']</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>43m ago</t>
+          <t>8m ago</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Accountant</t>
+          <t>Quantity Surveyor</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>81997278</t>
+          <t>81997990</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>City Developments Limited</t>
+          <t>Benchmark Staffing Solutions</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$3,500 – $4,500 per month</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -7861,12 +7861,12 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Downtown Core', ',Central Region']</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>44m ago</t>
+          <t>10m ago</t>
         </is>
       </c>
     </row>

--- a/cyx_jobstreet_jobs.xlsx
+++ b/cyx_jobstreet_jobs.xlsx
@@ -503,7 +503,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>36m ago</t>
+          <t>54m ago</t>
         </is>
       </c>
     </row>
@@ -540,7 +540,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>58m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>58m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
@@ -1428,7 +1428,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
@@ -1657,17 +1657,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Social Worker (CREST / COMIT)</t>
+          <t>Executive/ Senior Executive – Project Administration</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>81997512</t>
+          <t>81998265</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Viriya Community Services</t>
+          <t>Nanyang Technological University</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1682,29 +1682,29 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>['West Region']</t>
+          <t>['Pioneer', ',West Region']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>36m ago</t>
+          <t>8m ago</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Senior Planning Engineer ( Waterfront Project )</t>
+          <t>Technical Officer (Facilities Management)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>81997354</t>
+          <t>81998236</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>China Jingye Engineering Corporation Limited (Singapore Branch)</t>
+          <t>Singapore Power Ltd</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1719,29 +1719,29 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>['Sentosa', ',Central Region']</t>
+          <t>['Singapore']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>58m ago</t>
+          <t>10m ago</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Security Systems Project Director</t>
+          <t>R&amp;D System Design Engineer (Mechatronics/Software/Electronics)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>81997351</t>
+          <t>81998195</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CERTIS GROUP - GHR</t>
+          <t>KLA-Tencor (Singapore) Pte Ltd</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1756,34 +1756,34 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>['Commonwealth', ',Central Region']</t>
+          <t>['Serangoon', ',North-East Region']</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>58m ago</t>
+          <t>13m ago</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Store Assistant</t>
+          <t>Junior Sous Chef</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>81997313</t>
+          <t>81998162</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SIMCC PTE LTD</t>
+          <t>MIZUKI F &amp; B PTE LTD</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>$2,000 – $2,500 per month</t>
+          <t>$2,800 – $3,800 per month</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1793,34 +1793,34 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Orchard', ',Central Region']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>15m ago</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PUBLIC RELATIONS OFFICER – CONSTRUCTION</t>
+          <t>Mechanical Product Design Engineer (3D)</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>81997306</t>
+          <t>81229677</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>People Profilers Pte Ltd</t>
+          <t>Instant Hire Pte. Ltd.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>$2,500 – $3,100 per month</t>
+          <t>$4,000 – $6,000 per month</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1830,34 +1830,34 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Joo Koon', ',West Region']</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>17m ago</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Executive / Senior Executive - Retail Campaign Marketing</t>
+          <t>Staff Nurse/ Senior Staff Nurse</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>81997291</t>
+          <t>81998132</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Lagardere Travel Retail Singapore Pte Ltd</t>
+          <t>Simon Consultancy Pte Ltd</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$3,000 – $4,500 per month</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1867,34 +1867,34 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>['Paya Lebar', ',East Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>18m ago</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Project Manager (Security Technology)</t>
+          <t>Restaurant Supervisor</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>81997279</t>
+          <t>81998116</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CERTIS GROUP - GHR</t>
+          <t>MIZUKI F &amp; B PTE LTD</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>$5,000 – $7,500 per month</t>
+          <t>$3,000 – $4,000 per month</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1904,29 +1904,29 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>['Commonwealth', ',Central Region']</t>
+          <t>['Orchard', ',Central Region']</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>19m ago</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Accountant</t>
+          <t>Assistant Manager, Fund Accounting (Private Equity)</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>81997278</t>
+          <t>81998106</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>City Developments Limited</t>
+          <t>Vistra Corporate Services (SEA) Pte Ltd</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1946,29 +1946,29 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>20m ago</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Private Bus Driver (Class 4/BDVL/Gross up to $3500)</t>
+          <t>Executive / Senior Engineer (Gas Pipelines &amp; Operations Maintenance)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>81997121</t>
+          <t>81998062</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>Singapore Power Ltd</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>$2,500 – $3,500 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1978,34 +1978,34 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['North Region']</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>23m ago</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Executive / Senior Executive, Property Management</t>
+          <t>Financial Controller - Hospitality</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>81997091</t>
+          <t>81998060</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>City Developments Limited</t>
+          <t>Michael Page International Pte Ltd</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>10000</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2020,29 +2020,29 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>23m ago</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sales Consultant</t>
+          <t>Clinical Assistant</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>81997077</t>
+          <t>81998002</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Trusty Cars Ltd.</t>
+          <t>Alpha Chiropractic Health Pte Ltd</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$2,000 – $2,800 per month</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2052,34 +2052,34 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>['Bishan', ',Central Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>24m ago</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CUSTOMER SERVICE EXECUTIVE – SWISS MNC ($3K + AWS + 2 months Bonus)</t>
+          <t>Finance Manager - Technology &amp; Manufacturing</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>81997068</t>
+          <t>81998037</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>People Profilers Pte Ltd</t>
+          <t>Michael Page International Pte Ltd</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>$2,200 – $3,200 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2089,34 +2089,34 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>['West Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>25m ago</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Bus Driver (Class 4/Islandwide/Basic+OT=Gross up to $5000/fixed shift)</t>
+          <t>Engineering Technician (Test / Debug / East / Salary UP 3,200)</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>81997051</t>
+          <t>81997994</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>ALWAYSHIRED PTE. LTD.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>$2,400 per month</t>
+          <t>$2,400 – $3,200 per month</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2126,71 +2126,71 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Tampines', ',East Region']</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>27m ago</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Accounts &amp; Admin Executive - short contract (Engineering/3.6k/5 days)</t>
+          <t>Quantity Surveyor</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>81997037</t>
+          <t>81997990</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>RECRUIT FAST PTE. LTD.</t>
+          <t>Benchmark Staffing Solutions</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>$3,000 – $3,600 per month</t>
+          <t>$3,500 – $4,500 per month</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>This is a Contract/Temp job</t>
+          <t>This is a Full time job</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>['West Region']</t>
+          <t>['Downtown Core', ',Central Region']</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>29m ago</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Bus Driver (Class 4/BDVL/Gross up to $2850/Rotating shift/Islandwide)</t>
+          <t>Admin Assistant (Procurement)</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>81997030</t>
+          <t>81997955</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>Jumbo Group Of Restaurants Pte Ltd</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>$1,800 – $2,200 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2200,34 +2200,34 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['East Region']</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>31m ago</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Sales Executive (Based in Singapore)</t>
+          <t>Social Worker (CREST / COMIT)</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>81997023</t>
+          <t>81997512</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Etika Group of Companies</t>
+          <t>Viriya Community Services</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>$2,500 – $3,000 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2237,34 +2237,34 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>['Kaki Bukit', ',East Region']</t>
+          <t>['West Region']</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>54m ago</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Senior Mechanical Engineer (Semiconductor)</t>
+          <t>Senior Planning Engineer ( Waterfront Project )</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>81997020</t>
+          <t>81997354</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Talent Spot Group Pte Ltd</t>
+          <t>China Jingye Engineering Corporation Limited (Singapore Branch)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>$8,000 – $10,000 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2274,7 +2274,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>['North Region']</t>
+          <t>['Sentosa', ',Central Region']</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2286,22 +2286,22 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Lift Technician ( 5 Days  / Islandwide / Up to $3800 )</t>
+          <t>Security Systems Project Director</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>81997004</t>
+          <t>81997351</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ALWAYSHIRED PTE. LTD.</t>
+          <t>CERTIS GROUP - GHR</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>$3,000 – $4,000 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>['Kallang', ',Central Region']</t>
+          <t>['Commonwealth', ',Central Region']</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2323,22 +2323,22 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Sales Engineer</t>
+          <t>Store Assistant</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>81983111</t>
+          <t>81997313</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Electronics &amp; Engineering Pte Ltd</t>
+          <t>SIMCC PTE LTD</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$2,000 – $2,500 per month</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2348,7 +2348,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>['Outram', ',Central Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2360,22 +2360,22 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Accountant (Based in Singapore)</t>
+          <t>PUBLIC RELATIONS OFFICER – CONSTRUCTION</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>81996973</t>
+          <t>81997306</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Etika Group of Companies</t>
+          <t>People Profilers Pte Ltd</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>$3,000 – $4,500 per month</t>
+          <t>$2,500 – $3,100 per month</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>['Kaki Bukit', ',East Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2397,22 +2397,22 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Logistics Driver (SG only/Pulau Bukom/Class 4/Forklift/Up to $3000)</t>
+          <t>Executive / Senior Executive - Retail Campaign Marketing</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>81996969</t>
+          <t>81997291</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>Lagardere Travel Retail Singapore Pte Ltd</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>$3,000 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2422,7 +2422,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>['Jurong Island And Bukom', ',West Region']</t>
+          <t>['Paya Lebar', ',East Region']</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2434,32 +2434,32 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ASSISTANT MEMBERSHIP SERVICES EXECUTIVE</t>
+          <t>Project Manager (Security Technology)</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>81996957</t>
+          <t>81997279</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SAFRA National Service Association</t>
+          <t>CERTIS GROUP - GHR</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$5,000 – $7,500 per month</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>This is a Contract/Temp job</t>
+          <t>This is a Full time job</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Commonwealth', ',Central Region']</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2471,22 +2471,22 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>URGENT!!! HR Executive (Recruitment / AWS + VB / MNC)</t>
+          <t>Accountant</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>81996948</t>
+          <t>81997278</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>TRUST RECRUIT PTE. LTD.</t>
+          <t>City Developments Limited</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2496,7 +2496,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>['Tai Seng', ',North-East Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2508,22 +2508,22 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>*URGENT* Technician (Fabrication/ Kaki Bukit/ $2,200)_SPBT</t>
+          <t>Private Bus Driver (Class 4/BDVL/Gross up to $3500)</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>81996942</t>
+          <t>81997121</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>ScienTec Consulting Pte Ltd</t>
+          <t>CVista HR Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>SGD 1800 - 2200 per annum, AL, MC, AWS, VB</t>
+          <t>$2,500 – $3,500 per month</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2533,7 +2533,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>['Bedok', ',East Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2545,22 +2545,22 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Executive/Senior Executive Trade Marketing (Based in Singapore)</t>
+          <t>Executive / Senior Executive, Property Management</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>81996941</t>
+          <t>81997091</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Etika Group of Companies</t>
+          <t>City Developments Limited</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>$2,800 – $4,000 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2570,7 +2570,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>['Kaki Bukit', ',East Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2582,22 +2582,22 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>General Affairs Service Executive (Central, Up to $4,500)</t>
+          <t>Sales Consultant</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>81996927</t>
+          <t>81997077</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Good Job Creations (Singapore) Pte Ltd</t>
+          <t>Trusty Cars Ltd.</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>$3,000 - $4,500 (CBD, with bonus)</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>['Raffles Place', ',Central Region']</t>
+          <t>['Bishan', ',Central Region']</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2619,22 +2619,22 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Lorry Driver (Class 4/Islandwide/Gross up to $3000)</t>
+          <t>CUSTOMER SERVICE EXECUTIVE – SWISS MNC ($3K + AWS + 2 months Bonus)</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>81996909</t>
+          <t>81997068</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>People Profilers Pte Ltd</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>$2,500 – $3,000 per month</t>
+          <t>$2,200 – $3,200 per month</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2644,7 +2644,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['West Region']</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2656,22 +2656,22 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Assistant Project Engineer, PMO (ARTC)</t>
+          <t>Bus Driver (Class 4/Islandwide/Basic+OT=Gross up to $5000/fixed shift)</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>81996901</t>
+          <t>81997051</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Agency for Science, Technology and Research (A*STAR)</t>
+          <t>CVista HR Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$2,400 per month</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2681,71 +2681,71 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>['Pioneer', ',West Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Executive / Senior Executive, Engagement (Corp, Govt)</t>
+          <t>Accounts &amp; Admin Executive - short contract (Engineering/3.6k/5 days)</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>81996877</t>
+          <t>81997037</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>MINDSG LTD</t>
+          <t>RECRUIT FAST PTE. LTD.</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$3,000 – $3,600 per month</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>This is a Full time job</t>
+          <t>This is a Contract/Temp job</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>['Queenstown', ',Central Region']</t>
+          <t>['West Region']</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Field Service Technician (Depot)</t>
+          <t>Bus Driver (Class 4/BDVL/Gross up to $2850/Rotating shift/Islandwide)</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>81996857</t>
+          <t>81997030</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Smiths Detection Malaysia Sdn Bhd</t>
+          <t>CVista HR Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$1,800 – $2,200 per month</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2755,34 +2755,34 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>['Singapore River', ',Central Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>*URGENT* Pharmacy Technician (Office Hours, Clinic/Hospital) #HRY</t>
+          <t>Sales Executive (Based in Singapore)</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>81996846</t>
+          <t>81997023</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Private Advertiser</t>
+          <t>Etika Group of Companies</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>$3,000 – $4,000 per month</t>
+          <t>$2,500 – $3,000 per month</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2792,34 +2792,34 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Kaki Bukit', ',East Region']</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Field Service Engineer (HVAC/ Mechanical Engineering)</t>
+          <t>Senior Mechanical Engineer (Semiconductor)</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>81996845</t>
+          <t>81997020</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Pasona Singapore Pte. Ltd.</t>
+          <t>Talent Spot Group Pte Ltd</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>$3,400 – $5,000 per month</t>
+          <t>$8,000 – $10,000 per month</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2829,29 +2829,29 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>['Tuas', ',West Region']</t>
+          <t>['North Region']</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Social Worker (CREST / COMIT)</t>
+          <t>Interdisciplinary Collaborative Core (ICC) Specialists in Career &amp; Entrepreneuri</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>81997512</t>
+          <t>81998282</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Viriya Community Services</t>
+          <t>Nanyang Technological University</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2866,29 +2866,29 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>['West Region']</t>
+          <t>['Pioneer', ',West Region']</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>36m ago</t>
+          <t>4m ago</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Senior Planning Engineer ( Waterfront Project )</t>
+          <t>Part-Time Lecturer (R00018480)</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>81997354</t>
+          <t>81998277</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>China Jingye Engineering Corporation Limited (Singapore Branch)</t>
+          <t>Nanyang Technological University</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2898,34 +2898,34 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>This is a Full time job</t>
+          <t>This is a Part time job</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>['Sentosa', ',Central Region']</t>
+          <t>['Pioneer', ',West Region']</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>58m ago</t>
+          <t>6m ago</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Security Systems Project Director</t>
+          <t>Executive/ Senior Executive – Project Administration</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>81997351</t>
+          <t>81998265</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>CERTIS GROUP - GHR</t>
+          <t>Nanyang Technological University</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2940,34 +2940,34 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>['Commonwealth', ',Central Region']</t>
+          <t>['Pioneer', ',West Region']</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>58m ago</t>
+          <t>8m ago</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Store Assistant</t>
+          <t>Technical Officer (Facilities Management)</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>81997313</t>
+          <t>81998236</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>SIMCC PTE LTD</t>
+          <t>Singapore Power Ltd</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>$2,000 – $2,500 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2977,34 +2977,34 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Singapore']</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>10m ago</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>PUBLIC RELATIONS OFFICER – CONSTRUCTION</t>
+          <t>R&amp;D System Design Engineer (Mechatronics/Software/Electronics)</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>81997306</t>
+          <t>81998195</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>People Profilers Pte Ltd</t>
+          <t>KLA-Tencor (Singapore) Pte Ltd</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>$2,500 – $3,100 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3014,34 +3014,34 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Serangoon', ',North-East Region']</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>13m ago</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Executive / Senior Executive - Retail Campaign Marketing</t>
+          <t>Junior Sous Chef</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>81997291</t>
+          <t>81998162</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Lagardere Travel Retail Singapore Pte Ltd</t>
+          <t>MIZUKI F &amp; B PTE LTD</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$2,800 – $3,800 per month</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3051,34 +3051,34 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>['Paya Lebar', ',East Region']</t>
+          <t>['Orchard', ',Central Region']</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>15m ago</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Project Manager (Security Technology)</t>
+          <t>Mechanical Product Design Engineer (3D)</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>81997279</t>
+          <t>81229677</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CERTIS GROUP - GHR</t>
+          <t>Instant Hire Pte. Ltd.</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>$5,000 – $7,500 per month</t>
+          <t>$4,000 – $6,000 per month</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3088,34 +3088,34 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>['Commonwealth', ',Central Region']</t>
+          <t>['Joo Koon', ',West Region']</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>17m ago</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Accountant</t>
+          <t>Staff Nurse/ Senior Staff Nurse</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>81997278</t>
+          <t>81998132</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>City Developments Limited</t>
+          <t>Simon Consultancy Pte Ltd</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$3,000 – $4,500 per month</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3130,29 +3130,29 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>18m ago</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Private Bus Driver (Class 4/BDVL/Gross up to $3500)</t>
+          <t>Restaurant Supervisor</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>81997121</t>
+          <t>81998116</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>MIZUKI F &amp; B PTE LTD</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>$2,500 – $3,500 per month</t>
+          <t>$3,000 – $4,000 per month</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3162,29 +3162,29 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Orchard', ',Central Region']</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>19m ago</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Executive / Senior Executive, Property Management</t>
+          <t>Assistant Manager, Fund Accounting (Private Equity)</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>81997091</t>
+          <t>81998106</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>City Developments Limited</t>
+          <t>Vistra Corporate Services (SEA) Pte Ltd</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3204,24 +3204,24 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>20m ago</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Sales Consultant</t>
+          <t>Executive / Senior Engineer (Gas Pipelines &amp; Operations Maintenance)</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>81997077</t>
+          <t>81998062</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Trusty Cars Ltd.</t>
+          <t>Singapore Power Ltd</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3236,34 +3236,34 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>['Bishan', ',Central Region']</t>
+          <t>['North Region']</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>23m ago</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>CUSTOMER SERVICE EXECUTIVE – SWISS MNC ($3K + AWS + 2 months Bonus)</t>
+          <t>Financial Controller - Hospitality</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>81997068</t>
+          <t>81998060</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>People Profilers Pte Ltd</t>
+          <t>Michael Page International Pte Ltd</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>$2,200 – $3,200 per month</t>
+          <t>10000</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3273,34 +3273,34 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>['West Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>23m ago</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Bus Driver (Class 4/Islandwide/Basic+OT=Gross up to $5000/fixed shift)</t>
+          <t>Clinical Assistant</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>81997051</t>
+          <t>81998002</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>Alpha Chiropractic Health Pte Ltd</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>$2,400 per month</t>
+          <t>$2,000 – $2,800 per month</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3315,66 +3315,66 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>24m ago</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Accounts &amp; Admin Executive - short contract (Engineering/3.6k/5 days)</t>
+          <t>Finance Manager - Technology &amp; Manufacturing</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>81997037</t>
+          <t>81998037</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>RECRUIT FAST PTE. LTD.</t>
+          <t>Michael Page International Pte Ltd</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>$3,000 – $3,600 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>This is a Contract/Temp job</t>
+          <t>This is a Full time job</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>['West Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>25m ago</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Bus Driver (Class 4/BDVL/Gross up to $2850/Rotating shift/Islandwide)</t>
+          <t>Engineering Technician (Test / Debug / East / Salary UP 3,200)</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>81997030</t>
+          <t>81997994</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>ALWAYSHIRED PTE. LTD.</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>$1,800 – $2,200 per month</t>
+          <t>$2,400 – $3,200 per month</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3384,34 +3384,34 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Tampines', ',East Region']</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>27m ago</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Sales Executive (Based in Singapore)</t>
+          <t>Quantity Surveyor</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>81997023</t>
+          <t>81997990</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Etika Group of Companies</t>
+          <t>Benchmark Staffing Solutions</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>$2,500 – $3,000 per month</t>
+          <t>$3,500 – $4,500 per month</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3421,34 +3421,34 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>['Kaki Bukit', ',East Region']</t>
+          <t>['Downtown Core', ',Central Region']</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>29m ago</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Senior Mechanical Engineer (Semiconductor)</t>
+          <t>Admin Assistant (Procurement)</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>81997020</t>
+          <t>81997955</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Talent Spot Group Pte Ltd</t>
+          <t>Jumbo Group Of Restaurants Pte Ltd</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>$8,000 – $10,000 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3458,34 +3458,34 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>['North Region']</t>
+          <t>['East Region']</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>31m ago</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Lift Technician ( 5 Days  / Islandwide / Up to $3800 )</t>
+          <t>Social Worker (CREST / COMIT)</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>81997004</t>
+          <t>81997512</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>ALWAYSHIRED PTE. LTD.</t>
+          <t>Viriya Community Services</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>$3,000 – $4,000 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3495,29 +3495,29 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>['Kallang', ',Central Region']</t>
+          <t>['West Region']</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>54m ago</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Sales Engineer</t>
+          <t>Senior Planning Engineer ( Waterfront Project )</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>81983111</t>
+          <t>81997354</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Electronics &amp; Engineering Pte Ltd</t>
+          <t>China Jingye Engineering Corporation Limited (Singapore Branch)</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3532,7 +3532,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>['Outram', ',Central Region']</t>
+          <t>['Sentosa', ',Central Region']</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -3544,22 +3544,22 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Accountant (Based in Singapore)</t>
+          <t>Security Systems Project Director</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>81996973</t>
+          <t>81997351</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Etika Group of Companies</t>
+          <t>CERTIS GROUP - GHR</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>$3,000 – $4,500 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3569,7 +3569,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>['Kaki Bukit', ',East Region']</t>
+          <t>['Commonwealth', ',Central Region']</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -3581,22 +3581,22 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Logistics Driver (SG only/Pulau Bukom/Class 4/Forklift/Up to $3000)</t>
+          <t>Store Assistant</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>81996969</t>
+          <t>81997313</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>SIMCC PTE LTD</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>$3,000 per month</t>
+          <t>$2,000 – $2,500 per month</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3606,7 +3606,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>['Jurong Island And Bukom', ',West Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -3618,27 +3618,27 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ASSISTANT MEMBERSHIP SERVICES EXECUTIVE</t>
+          <t>PUBLIC RELATIONS OFFICER – CONSTRUCTION</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>81996957</t>
+          <t>81997306</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>SAFRA National Service Association</t>
+          <t>People Profilers Pte Ltd</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$2,500 – $3,100 per month</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>This is a Contract/Temp job</t>
+          <t>This is a Full time job</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3655,22 +3655,22 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>URGENT!!! HR Executive (Recruitment / AWS + VB / MNC)</t>
+          <t>Executive / Senior Executive - Retail Campaign Marketing</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>81996948</t>
+          <t>81997291</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>TRUST RECRUIT PTE. LTD.</t>
+          <t>Lagardere Travel Retail Singapore Pte Ltd</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3680,7 +3680,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>['Tai Seng', ',North-East Region']</t>
+          <t>['Paya Lebar', ',East Region']</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -3692,22 +3692,22 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>*URGENT* Technician (Fabrication/ Kaki Bukit/ $2,200)_SPBT</t>
+          <t>Project Manager (Security Technology)</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>81996942</t>
+          <t>81997279</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>ScienTec Consulting Pte Ltd</t>
+          <t>CERTIS GROUP - GHR</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>SGD 1800 - 2200 per annum, AL, MC, AWS, VB</t>
+          <t>$5,000 – $7,500 per month</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3717,7 +3717,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>['Bedok', ',East Region']</t>
+          <t>['Commonwealth', ',Central Region']</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -3729,22 +3729,22 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Executive/Senior Executive Trade Marketing (Based in Singapore)</t>
+          <t>Accountant</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>81996941</t>
+          <t>81997278</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Etika Group of Companies</t>
+          <t>City Developments Limited</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>$2,800 – $4,000 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3754,7 +3754,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>['Kaki Bukit', ',East Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -3766,22 +3766,22 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>General Affairs Service Executive (Central, Up to $4,500)</t>
+          <t>Private Bus Driver (Class 4/BDVL/Gross up to $3500)</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>81996927</t>
+          <t>81997121</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Good Job Creations (Singapore) Pte Ltd</t>
+          <t>CVista HR Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>$3,000 - $4,500 (CBD, with bonus)</t>
+          <t>$2,500 – $3,500 per month</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3791,7 +3791,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>['Raffles Place', ',Central Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -3803,22 +3803,22 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Lorry Driver (Class 4/Islandwide/Gross up to $3000)</t>
+          <t>Executive / Senior Executive, Property Management</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>81996909</t>
+          <t>81997091</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>City Developments Limited</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>$2,500 – $3,000 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3840,17 +3840,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Assistant Project Engineer, PMO (ARTC)</t>
+          <t>Sales Consultant</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>81996901</t>
+          <t>81997077</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Agency for Science, Technology and Research (A*STAR)</t>
+          <t>Trusty Cars Ltd.</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3865,34 +3865,34 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>['Pioneer', ',West Region']</t>
+          <t>['Bishan', ',Central Region']</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Executive / Senior Executive, Engagement (Corp, Govt)</t>
+          <t>CUSTOMER SERVICE EXECUTIVE – SWISS MNC ($3K + AWS + 2 months Bonus)</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>81996877</t>
+          <t>81997068</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>MINDSG LTD</t>
+          <t>People Profilers Pte Ltd</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$2,200 – $3,200 per month</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3902,34 +3902,34 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>['Queenstown', ',Central Region']</t>
+          <t>['West Region']</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Field Service Technician (Depot)</t>
+          <t>Bus Driver (Class 4/Islandwide/Basic+OT=Gross up to $5000/fixed shift)</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>81996857</t>
+          <t>81997051</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Smiths Detection Malaysia Sdn Bhd</t>
+          <t>CVista HR Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$2,400 per month</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -3939,71 +3939,71 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>['Singapore River', ',Central Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>*URGENT* Pharmacy Technician (Office Hours, Clinic/Hospital) #HRY</t>
+          <t>Accounts &amp; Admin Executive - short contract (Engineering/3.6k/5 days)</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>81996846</t>
+          <t>81997037</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Private Advertiser</t>
+          <t>RECRUIT FAST PTE. LTD.</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>$3,000 – $4,000 per month</t>
+          <t>$3,000 – $3,600 per month</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>This is a Full time job</t>
+          <t>This is a Contract/Temp job</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['West Region']</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Field Service Engineer (HVAC/ Mechanical Engineering)</t>
+          <t>Bus Driver (Class 4/BDVL/Gross up to $2850/Rotating shift/Islandwide)</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>81996845</t>
+          <t>81997030</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Pasona Singapore Pte. Ltd.</t>
+          <t>CVista HR Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>$3,400 – $5,000 per month</t>
+          <t>$1,800 – $2,200 per month</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4013,29 +4013,29 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>['Tuas', ',West Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Social Worker (CREST / COMIT)</t>
+          <t>Technical Officer (Facilities Management)</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>81997512</t>
+          <t>81998236</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Viriya Community Services</t>
+          <t>Singapore Power Ltd</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4050,29 +4050,29 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>['West Region']</t>
+          <t>['Singapore']</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>36m ago</t>
+          <t>10m ago</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Senior Planning Engineer ( Waterfront Project )</t>
+          <t>R&amp;D System Design Engineer (Mechatronics/Software/Electronics)</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>81997354</t>
+          <t>81998195</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>China Jingye Engineering Corporation Limited (Singapore Branch)</t>
+          <t>KLA-Tencor (Singapore) Pte Ltd</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4087,34 +4087,34 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>['Sentosa', ',Central Region']</t>
+          <t>['Serangoon', ',North-East Region']</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>58m ago</t>
+          <t>13m ago</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Security Systems Project Director</t>
+          <t>Junior Sous Chef</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>81997351</t>
+          <t>81998162</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>CERTIS GROUP - GHR</t>
+          <t>MIZUKI F &amp; B PTE LTD</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$2,800 – $3,800 per month</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -4124,34 +4124,34 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>['Commonwealth', ',Central Region']</t>
+          <t>['Orchard', ',Central Region']</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>58m ago</t>
+          <t>15m ago</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Store Assistant</t>
+          <t>Mechanical Product Design Engineer (3D)</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>81997313</t>
+          <t>81229677</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>SIMCC PTE LTD</t>
+          <t>Instant Hire Pte. Ltd.</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>$2,000 – $2,500 per month</t>
+          <t>$4,000 – $6,000 per month</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4161,34 +4161,34 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Joo Koon', ',West Region']</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>17m ago</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>PUBLIC RELATIONS OFFICER – CONSTRUCTION</t>
+          <t>Staff Nurse/ Senior Staff Nurse</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>81997306</t>
+          <t>81998132</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>People Profilers Pte Ltd</t>
+          <t>Simon Consultancy Pte Ltd</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>$2,500 – $3,100 per month</t>
+          <t>$3,000 – $4,500 per month</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4203,29 +4203,29 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>18m ago</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Executive / Senior Executive - Retail Campaign Marketing</t>
+          <t>Restaurant Supervisor</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>81997291</t>
+          <t>81998116</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Lagardere Travel Retail Singapore Pte Ltd</t>
+          <t>MIZUKI F &amp; B PTE LTD</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$3,000 – $4,000 per month</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4235,34 +4235,34 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>['Paya Lebar', ',East Region']</t>
+          <t>['Orchard', ',Central Region']</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>19m ago</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Project Manager (Security Technology)</t>
+          <t>Assistant Manager, Fund Accounting (Private Equity)</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>81997279</t>
+          <t>81998106</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>CERTIS GROUP - GHR</t>
+          <t>Vistra Corporate Services (SEA) Pte Ltd</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>$5,000 – $7,500 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4272,29 +4272,29 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>['Commonwealth', ',Central Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>20m ago</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Accountant</t>
+          <t>Executive / Senior Engineer (Gas Pipelines &amp; Operations Maintenance)</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>81997278</t>
+          <t>81998062</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>City Developments Limited</t>
+          <t>Singapore Power Ltd</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -4309,34 +4309,34 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['North Region']</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>23m ago</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Private Bus Driver (Class 4/BDVL/Gross up to $3500)</t>
+          <t>Financial Controller - Hospitality</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>81997121</t>
+          <t>81998060</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>Michael Page International Pte Ltd</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>$2,500 – $3,500 per month</t>
+          <t>10000</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4351,29 +4351,29 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>23m ago</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Executive / Senior Executive, Property Management</t>
+          <t>Clinical Assistant</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>81997091</t>
+          <t>81998002</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>City Developments Limited</t>
+          <t>Alpha Chiropractic Health Pte Ltd</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$2,000 – $2,800 per month</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4388,24 +4388,24 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>24m ago</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Sales Consultant</t>
+          <t>Finance Manager - Technology &amp; Manufacturing</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>81997077</t>
+          <t>81998037</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Trusty Cars Ltd.</t>
+          <t>Michael Page International Pte Ltd</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4420,34 +4420,34 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>['Bishan', ',Central Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>25m ago</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>CUSTOMER SERVICE EXECUTIVE – SWISS MNC ($3K + AWS + 2 months Bonus)</t>
+          <t>Engineering Technician (Test / Debug / East / Salary UP 3,200)</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>81997068</t>
+          <t>81997994</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>People Profilers Pte Ltd</t>
+          <t>ALWAYSHIRED PTE. LTD.</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>$2,200 – $3,200 per month</t>
+          <t>$2,400 – $3,200 per month</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4457,34 +4457,34 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>['West Region']</t>
+          <t>['Tampines', ',East Region']</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>27m ago</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Bus Driver (Class 4/Islandwide/Basic+OT=Gross up to $5000/fixed shift)</t>
+          <t>Quantity Surveyor</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>81997051</t>
+          <t>81997990</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>Benchmark Staffing Solutions</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>$2,400 per month</t>
+          <t>$3,500 – $4,500 per month</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4494,71 +4494,71 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Downtown Core', ',Central Region']</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>29m ago</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Accounts &amp; Admin Executive - short contract (Engineering/3.6k/5 days)</t>
+          <t>Admin Assistant (Procurement)</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>81997037</t>
+          <t>81997955</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>RECRUIT FAST PTE. LTD.</t>
+          <t>Jumbo Group Of Restaurants Pte Ltd</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>$3,000 – $3,600 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>This is a Contract/Temp job</t>
+          <t>This is a Full time job</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>['West Region']</t>
+          <t>['East Region']</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>31m ago</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Bus Driver (Class 4/BDVL/Gross up to $2850/Rotating shift/Islandwide)</t>
+          <t>Social Worker (CREST / COMIT)</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>81997030</t>
+          <t>81997512</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>Viriya Community Services</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>$1,800 – $2,200 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -4568,34 +4568,34 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['West Region']</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>54m ago</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Sales Executive (Based in Singapore)</t>
+          <t>Senior Planning Engineer ( Waterfront Project )</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>81997023</t>
+          <t>81997354</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Etika Group of Companies</t>
+          <t>China Jingye Engineering Corporation Limited (Singapore Branch)</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>$2,500 – $3,000 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -4605,7 +4605,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>['Kaki Bukit', ',East Region']</t>
+          <t>['Sentosa', ',Central Region']</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -4617,22 +4617,22 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Senior Mechanical Engineer (Semiconductor)</t>
+          <t>Security Systems Project Director</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>81997020</t>
+          <t>81997351</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Talent Spot Group Pte Ltd</t>
+          <t>CERTIS GROUP - GHR</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>$8,000 – $10,000 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -4642,7 +4642,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>['North Region']</t>
+          <t>['Commonwealth', ',Central Region']</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -4654,22 +4654,22 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Lift Technician ( 5 Days  / Islandwide / Up to $3800 )</t>
+          <t>Store Assistant</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>81997004</t>
+          <t>81997313</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>ALWAYSHIRED PTE. LTD.</t>
+          <t>SIMCC PTE LTD</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>$3,000 – $4,000 per month</t>
+          <t>$2,000 – $2,500 per month</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -4679,7 +4679,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>['Kallang', ',Central Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -4691,22 +4691,22 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Sales Engineer</t>
+          <t>PUBLIC RELATIONS OFFICER – CONSTRUCTION</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>81983111</t>
+          <t>81997306</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Electronics &amp; Engineering Pte Ltd</t>
+          <t>People Profilers Pte Ltd</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$2,500 – $3,100 per month</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -4716,7 +4716,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>['Outram', ',Central Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -4728,22 +4728,22 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Accountant (Based in Singapore)</t>
+          <t>Executive / Senior Executive - Retail Campaign Marketing</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>81996973</t>
+          <t>81997291</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Etika Group of Companies</t>
+          <t>Lagardere Travel Retail Singapore Pte Ltd</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>$3,000 – $4,500 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -4753,7 +4753,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>['Kaki Bukit', ',East Region']</t>
+          <t>['Paya Lebar', ',East Region']</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -4765,22 +4765,22 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Logistics Driver (SG only/Pulau Bukom/Class 4/Forklift/Up to $3000)</t>
+          <t>Project Manager (Security Technology)</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>81996969</t>
+          <t>81997279</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>CERTIS GROUP - GHR</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>$3,000 per month</t>
+          <t>$5,000 – $7,500 per month</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -4790,7 +4790,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>['Jurong Island And Bukom', ',West Region']</t>
+          <t>['Commonwealth', ',Central Region']</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -4802,17 +4802,17 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>ASSISTANT MEMBERSHIP SERVICES EXECUTIVE</t>
+          <t>Accountant</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>81996957</t>
+          <t>81997278</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>SAFRA National Service Association</t>
+          <t>City Developments Limited</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -4822,7 +4822,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>This is a Contract/Temp job</t>
+          <t>This is a Full time job</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -4839,22 +4839,22 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>URGENT!!! HR Executive (Recruitment / AWS + VB / MNC)</t>
+          <t>Private Bus Driver (Class 4/BDVL/Gross up to $3500)</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>81996948</t>
+          <t>81997121</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>TRUST RECRUIT PTE. LTD.</t>
+          <t>CVista HR Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$2,500 – $3,500 per month</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -4864,7 +4864,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>['Tai Seng', ',North-East Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -4876,22 +4876,22 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>*URGENT* Technician (Fabrication/ Kaki Bukit/ $2,200)_SPBT</t>
+          <t>Executive / Senior Executive, Property Management</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>81996942</t>
+          <t>81997091</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>ScienTec Consulting Pte Ltd</t>
+          <t>City Developments Limited</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>SGD 1800 - 2200 per annum, AL, MC, AWS, VB</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -4901,7 +4901,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>['Bedok', ',East Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -4913,22 +4913,22 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Executive/Senior Executive Trade Marketing (Based in Singapore)</t>
+          <t>Sales Consultant</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>81996941</t>
+          <t>81997077</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Etika Group of Companies</t>
+          <t>Trusty Cars Ltd.</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>$2,800 – $4,000 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -4938,7 +4938,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>['Kaki Bukit', ',East Region']</t>
+          <t>['Bishan', ',Central Region']</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -4950,22 +4950,22 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>General Affairs Service Executive (Central, Up to $4,500)</t>
+          <t>CUSTOMER SERVICE EXECUTIVE – SWISS MNC ($3K + AWS + 2 months Bonus)</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>81996927</t>
+          <t>81997068</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Good Job Creations (Singapore) Pte Ltd</t>
+          <t>People Profilers Pte Ltd</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>$3,000 - $4,500 (CBD, with bonus)</t>
+          <t>$2,200 – $3,200 per month</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -4975,7 +4975,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>['Raffles Place', ',Central Region']</t>
+          <t>['West Region']</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -4987,12 +4987,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Lorry Driver (Class 4/Islandwide/Gross up to $3000)</t>
+          <t>Bus Driver (Class 4/Islandwide/Basic+OT=Gross up to $5000/fixed shift)</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>81996909</t>
+          <t>81997051</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -5002,7 +5002,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>$2,500 – $3,000 per month</t>
+          <t>$2,400 per month</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5024,59 +5024,59 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Assistant Project Engineer, PMO (ARTC)</t>
+          <t>Accounts &amp; Admin Executive - short contract (Engineering/3.6k/5 days)</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>81996901</t>
+          <t>81997037</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Agency for Science, Technology and Research (A*STAR)</t>
+          <t>RECRUIT FAST PTE. LTD.</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$3,000 – $3,600 per month</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>This is a Full time job</t>
+          <t>This is a Contract/Temp job</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>['Pioneer', ',West Region']</t>
+          <t>['West Region']</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Executive / Senior Executive, Engagement (Corp, Govt)</t>
+          <t>Bus Driver (Class 4/BDVL/Gross up to $2850/Rotating shift/Islandwide)</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>81996877</t>
+          <t>81997030</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>MINDSG LTD</t>
+          <t>CVista HR Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$1,800 – $2,200 per month</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -5086,34 +5086,34 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>['Queenstown', ',Central Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Field Service Technician (Depot)</t>
+          <t>Sales Executive (Based in Singapore)</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>81996857</t>
+          <t>81997023</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Smiths Detection Malaysia Sdn Bhd</t>
+          <t>Etika Group of Companies</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$2,500 – $3,000 per month</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -5123,34 +5123,34 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>['Singapore River', ',Central Region']</t>
+          <t>['Kaki Bukit', ',East Region']</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>*URGENT* Pharmacy Technician (Office Hours, Clinic/Hospital) #HRY</t>
+          <t>Senior Mechanical Engineer (Semiconductor)</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>81996846</t>
+          <t>81997020</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Private Advertiser</t>
+          <t>Talent Spot Group Pte Ltd</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>$3,000 – $4,000 per month</t>
+          <t>$8,000 – $10,000 per month</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5160,34 +5160,34 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['North Region']</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Field Service Engineer (HVAC/ Mechanical Engineering)</t>
+          <t>Lift Technician ( 5 Days  / Islandwide / Up to $3800 )</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>81996845</t>
+          <t>81997004</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Pasona Singapore Pte. Ltd.</t>
+          <t>ALWAYSHIRED PTE. LTD.</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>$3,400 – $5,000 per month</t>
+          <t>$3,000 – $4,000 per month</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -5197,29 +5197,29 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>['Tuas', ',West Region']</t>
+          <t>['Kallang', ',Central Region']</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Senior Planning Engineer ( Waterfront Project )</t>
+          <t>Social Worker (CREST / COMIT)</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>81997354</t>
+          <t>81997512</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>China Jingye Engineering Corporation Limited (Singapore Branch)</t>
+          <t>Viriya Community Services</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -5234,29 +5234,29 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>['Sentosa', ',Central Region']</t>
+          <t>['West Region']</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>58m ago</t>
+          <t>54m ago</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Security Systems Project Director</t>
+          <t>Senior Planning Engineer ( Waterfront Project )</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>81997351</t>
+          <t>81997354</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>CERTIS GROUP - GHR</t>
+          <t>China Jingye Engineering Corporation Limited (Singapore Branch)</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -5271,34 +5271,34 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>['Commonwealth', ',Central Region']</t>
+          <t>['Sentosa', ',Central Region']</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>58m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Store Assistant</t>
+          <t>Security Systems Project Director</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>81997313</t>
+          <t>81997351</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>SIMCC PTE LTD</t>
+          <t>CERTIS GROUP - GHR</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>$2,000 – $2,500 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -5308,7 +5308,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Commonwealth', ',Central Region']</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -5320,22 +5320,22 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>PUBLIC RELATIONS OFFICER – CONSTRUCTION</t>
+          <t>Store Assistant</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>81997306</t>
+          <t>81997313</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>People Profilers Pte Ltd</t>
+          <t>SIMCC PTE LTD</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>$2,500 – $3,100 per month</t>
+          <t>$2,000 – $2,500 per month</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -5357,22 +5357,22 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Executive / Senior Executive - Retail Campaign Marketing</t>
+          <t>PUBLIC RELATIONS OFFICER – CONSTRUCTION</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>81997291</t>
+          <t>81997306</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Lagardere Travel Retail Singapore Pte Ltd</t>
+          <t>People Profilers Pte Ltd</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$2,500 – $3,100 per month</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -5382,7 +5382,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>['Paya Lebar', ',East Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -5394,22 +5394,22 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Project Manager (Security Technology)</t>
+          <t>Executive / Senior Executive - Retail Campaign Marketing</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>81997279</t>
+          <t>81997291</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>CERTIS GROUP - GHR</t>
+          <t>Lagardere Travel Retail Singapore Pte Ltd</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>$5,000 – $7,500 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -5419,7 +5419,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>['Commonwealth', ',Central Region']</t>
+          <t>['Paya Lebar', ',East Region']</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -5431,22 +5431,22 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Accountant</t>
+          <t>Project Manager (Security Technology)</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>81997278</t>
+          <t>81997279</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>City Developments Limited</t>
+          <t>CERTIS GROUP - GHR</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$5,000 – $7,500 per month</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -5456,7 +5456,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Commonwealth', ',Central Region']</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -5468,22 +5468,22 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Private Bus Driver (Class 4/BDVL/Gross up to $3500)</t>
+          <t>Accountant</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>81997121</t>
+          <t>81997278</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>City Developments Limited</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>$2,500 – $3,500 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -5505,22 +5505,22 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Executive / Senior Executive, Property Management</t>
+          <t>Private Bus Driver (Class 4/BDVL/Gross up to $3500)</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>81997091</t>
+          <t>81997121</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>City Developments Limited</t>
+          <t>CVista HR Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$2,500 – $3,500 per month</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -5542,17 +5542,17 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Sales Consultant</t>
+          <t>Executive / Senior Executive, Property Management</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>81997077</t>
+          <t>81997091</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Trusty Cars Ltd.</t>
+          <t>City Developments Limited</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -5567,7 +5567,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>['Bishan', ',Central Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -5579,22 +5579,22 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>CUSTOMER SERVICE EXECUTIVE – SWISS MNC ($3K + AWS + 2 months Bonus)</t>
+          <t>Sales Consultant</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>81997068</t>
+          <t>81997077</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>People Profilers Pte Ltd</t>
+          <t>Trusty Cars Ltd.</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>$2,200 – $3,200 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -5604,7 +5604,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>['West Region']</t>
+          <t>['Bishan', ',Central Region']</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -5616,22 +5616,22 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Bus Driver (Class 4/Islandwide/Basic+OT=Gross up to $5000/fixed shift)</t>
+          <t>CUSTOMER SERVICE EXECUTIVE – SWISS MNC ($3K + AWS + 2 months Bonus)</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>81997051</t>
+          <t>81997068</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>People Profilers Pte Ltd</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>$2,400 per month</t>
+          <t>$2,200 – $3,200 per month</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -5641,7 +5641,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['West Region']</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -5653,32 +5653,32 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Accounts &amp; Admin Executive - short contract (Engineering/3.6k/5 days)</t>
+          <t>Bus Driver (Class 4/Islandwide/Basic+OT=Gross up to $5000/fixed shift)</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>81997037</t>
+          <t>81997051</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>RECRUIT FAST PTE. LTD.</t>
+          <t>CVista HR Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>$3,000 – $3,600 per month</t>
+          <t>$2,400 per month</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>This is a Contract/Temp job</t>
+          <t>This is a Full time job</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>['West Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -5690,32 +5690,32 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Bus Driver (Class 4/BDVL/Gross up to $2850/Rotating shift/Islandwide)</t>
+          <t>Accounts &amp; Admin Executive - short contract (Engineering/3.6k/5 days)</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>81997030</t>
+          <t>81997037</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>RECRUIT FAST PTE. LTD.</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>$1,800 – $2,200 per month</t>
+          <t>$3,000 – $3,600 per month</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>This is a Full time job</t>
+          <t>This is a Contract/Temp job</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['West Region']</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -5727,22 +5727,22 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Sales Executive (Based in Singapore)</t>
+          <t>Bus Driver (Class 4/BDVL/Gross up to $2850/Rotating shift/Islandwide)</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>81997023</t>
+          <t>81997030</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Etika Group of Companies</t>
+          <t>CVista HR Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>$2,500 – $3,000 per month</t>
+          <t>$1,800 – $2,200 per month</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>['Kaki Bukit', ',East Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -5764,22 +5764,22 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Senior Mechanical Engineer (Semiconductor)</t>
+          <t>Sales Executive (Based in Singapore)</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>81997020</t>
+          <t>81997023</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Talent Spot Group Pte Ltd</t>
+          <t>Etika Group of Companies</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>$8,000 – $10,000 per month</t>
+          <t>$2,500 – $3,000 per month</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -5789,7 +5789,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>['North Region']</t>
+          <t>['Kaki Bukit', ',East Region']</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -5801,22 +5801,22 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Lift Technician ( 5 Days  / Islandwide / Up to $3800 )</t>
+          <t>Senior Mechanical Engineer (Semiconductor)</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>81997004</t>
+          <t>81997020</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>ALWAYSHIRED PTE. LTD.</t>
+          <t>Talent Spot Group Pte Ltd</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>$3,000 – $4,000 per month</t>
+          <t>$8,000 – $10,000 per month</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -5826,7 +5826,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>['Kallang', ',Central Region']</t>
+          <t>['North Region']</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -5838,22 +5838,22 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Sales Engineer</t>
+          <t>Lift Technician ( 5 Days  / Islandwide / Up to $3800 )</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>81983111</t>
+          <t>81997004</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Electronics &amp; Engineering Pte Ltd</t>
+          <t>ALWAYSHIRED PTE. LTD.</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$3,000 – $4,000 per month</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -5863,7 +5863,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>['Outram', ',Central Region']</t>
+          <t>['Kallang', ',Central Region']</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -5875,22 +5875,22 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Accountant (Based in Singapore)</t>
+          <t>Sales Engineer</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>81996973</t>
+          <t>81983111</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Etika Group of Companies</t>
+          <t>Electronics &amp; Engineering Pte Ltd</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>$3,000 – $4,500 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -5900,34 +5900,34 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>['Kaki Bukit', ',East Region']</t>
+          <t>['Outram', ',Central Region']</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Logistics Driver (SG only/Pulau Bukom/Class 4/Forklift/Up to $3000)</t>
+          <t>Accountant (Based in Singapore)</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>81996969</t>
+          <t>81996973</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>Etika Group of Companies</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>$3,000 per month</t>
+          <t>$3,000 – $4,500 per month</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -5937,108 +5937,108 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>['Jurong Island And Bukom', ',West Region']</t>
+          <t>['Kaki Bukit', ',East Region']</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>ASSISTANT MEMBERSHIP SERVICES EXECUTIVE</t>
+          <t>Logistics Driver (SG only/Pulau Bukom/Class 4/Forklift/Up to $3000)</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>81996957</t>
+          <t>81996969</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>SAFRA National Service Association</t>
+          <t>CVista HR Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$3,000 per month</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>This is a Contract/Temp job</t>
+          <t>This is a Full time job</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Jurong Island And Bukom', ',West Region']</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>URGENT!!! HR Executive (Recruitment / AWS + VB / MNC)</t>
+          <t>ASSISTANT MEMBERSHIP SERVICES EXECUTIVE</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>81996948</t>
+          <t>81996957</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>TRUST RECRUIT PTE. LTD.</t>
+          <t>SAFRA National Service Association</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>This is a Full time job</t>
+          <t>This is a Contract/Temp job</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>['Tai Seng', ',North-East Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>*URGENT* Technician (Fabrication/ Kaki Bukit/ $2,200)_SPBT</t>
+          <t>URGENT!!! HR Executive (Recruitment / AWS + VB / MNC)</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>81996942</t>
+          <t>81996948</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>ScienTec Consulting Pte Ltd</t>
+          <t>TRUST RECRUIT PTE. LTD.</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>SGD 1800 - 2200 per annum, AL, MC, AWS, VB</t>
+          <t>$3,000 – $3,500 per month</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -6048,34 +6048,34 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>['Bedok', ',East Region']</t>
+          <t>['Tai Seng', ',North-East Region']</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Executive/Senior Executive Trade Marketing (Based in Singapore)</t>
+          <t>*URGENT* Technician (Fabrication/ Kaki Bukit/ $2,200)_SPBT</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>81996941</t>
+          <t>81996942</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Etika Group of Companies</t>
+          <t>ScienTec Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>$2,800 – $4,000 per month</t>
+          <t>SGD 1800 - 2200 per annum, AL, MC, AWS, VB</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -6085,34 +6085,34 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>['Kaki Bukit', ',East Region']</t>
+          <t>['Bedok', ',East Region']</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>General Affairs Service Executive (Central, Up to $4,500)</t>
+          <t>Executive/Senior Executive Trade Marketing (Based in Singapore)</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>81996927</t>
+          <t>81996941</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Good Job Creations (Singapore) Pte Ltd</t>
+          <t>Etika Group of Companies</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>$3,000 - $4,500 (CBD, with bonus)</t>
+          <t>$2,800 – $4,000 per month</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -6122,34 +6122,34 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>['Raffles Place', ',Central Region']</t>
+          <t>['Kaki Bukit', ',East Region']</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Lorry Driver (Class 4/Islandwide/Gross up to $3000)</t>
+          <t>General Affairs Service Executive (Central, Up to $4,500)</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>81996909</t>
+          <t>81996927</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>Good Job Creations (Singapore) Pte Ltd</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>$2,500 – $3,000 per month</t>
+          <t>$3,000 - $4,500 (CBD, with bonus)</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -6159,34 +6159,34 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Raffles Place', ',Central Region']</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>2h ago</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Assistant Project Engineer, PMO (ARTC)</t>
+          <t>Lorry Driver (Class 4/Islandwide/Gross up to $3000)</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>81996901</t>
+          <t>81996909</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Agency for Science, Technology and Research (A*STAR)</t>
+          <t>CVista HR Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$2,500 – $3,000 per month</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -6196,7 +6196,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>['Pioneer', ',West Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -6208,17 +6208,17 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Executive / Senior Executive, Engagement (Corp, Govt)</t>
+          <t>Assistant Project Engineer, PMO (ARTC)</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>81996877</t>
+          <t>81996901</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>MINDSG LTD</t>
+          <t>Agency for Science, Technology and Research (A*STAR)</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -6233,7 +6233,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>['Queenstown', ',Central Region']</t>
+          <t>['Pioneer', ',West Region']</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -6245,17 +6245,17 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Field Service Technician (Depot)</t>
+          <t>Executive / Senior Executive, Engagement (Corp, Govt)</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>81996857</t>
+          <t>81996877</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Smiths Detection Malaysia Sdn Bhd</t>
+          <t>MINDSG LTD</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -6270,7 +6270,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>['Singapore River', ',Central Region']</t>
+          <t>['Queenstown', ',Central Region']</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -6282,22 +6282,22 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>*URGENT* Pharmacy Technician (Office Hours, Clinic/Hospital) #HRY</t>
+          <t>Field Service Technician (Depot)</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>81996846</t>
+          <t>81996857</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Private Advertiser</t>
+          <t>Smiths Detection Malaysia Sdn Bhd</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>$3,000 – $4,000 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -6307,7 +6307,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Singapore River', ',Central Region']</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -6319,22 +6319,22 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Field Service Engineer (HVAC/ Mechanical Engineering)</t>
+          <t>*URGENT* Pharmacy Technician (Office Hours, Clinic/Hospital) #HRY</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>81996845</t>
+          <t>81996846</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Pasona Singapore Pte. Ltd.</t>
+          <t>Private Advertiser</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>$3,400 – $5,000 per month</t>
+          <t>$3,000 – $4,000 per month</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -6344,7 +6344,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>['Tuas', ',West Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -6356,22 +6356,22 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Talent Acquisition Manager (Blockchain) (Town, up to $6,700 + Bonus)</t>
+          <t>Field Service Engineer (HVAC/ Mechanical Engineering)</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>81996844</t>
+          <t>81996845</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Good Job Creations (Singapore) Pte Ltd</t>
+          <t>Pasona Singapore Pte. Ltd.</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>$5,000 - $6,700 (Central, with Bonus)</t>
+          <t>$3,400 – $5,000 per month</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>['Orchard', ',Central Region']</t>
+          <t>['Tuas', ',West Region']</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -6393,17 +6393,17 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Senior Planning Engineer ( Waterfront Project )</t>
+          <t>Executive/ Senior Executive – Project Administration</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>81997354</t>
+          <t>81998265</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>China Jingye Engineering Corporation Limited (Singapore Branch)</t>
+          <t>Nanyang Technological University</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -6418,29 +6418,29 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>['Sentosa', ',Central Region']</t>
+          <t>['Pioneer', ',West Region']</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>58m ago</t>
+          <t>8m ago</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Security Systems Project Director</t>
+          <t>Technical Officer (Facilities Management)</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>81997351</t>
+          <t>81998236</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>CERTIS GROUP - GHR</t>
+          <t>Singapore Power Ltd</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -6455,34 +6455,34 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>['Commonwealth', ',Central Region']</t>
+          <t>['Singapore']</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>58m ago</t>
+          <t>10m ago</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Store Assistant</t>
+          <t>R&amp;D System Design Engineer (Mechatronics/Software/Electronics)</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>81997313</t>
+          <t>81998195</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>SIMCC PTE LTD</t>
+          <t>KLA-Tencor (Singapore) Pte Ltd</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>$2,000 – $2,500 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -6492,34 +6492,34 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Serangoon', ',North-East Region']</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>13m ago</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>PUBLIC RELATIONS OFFICER – CONSTRUCTION</t>
+          <t>Junior Sous Chef</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>81997306</t>
+          <t>81998162</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>People Profilers Pte Ltd</t>
+          <t>MIZUKI F &amp; B PTE LTD</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>$2,500 – $3,100 per month</t>
+          <t>$2,800 – $3,800 per month</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -6529,34 +6529,34 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Orchard', ',Central Region']</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>15m ago</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Executive / Senior Executive - Retail Campaign Marketing</t>
+          <t>Mechanical Product Design Engineer (3D)</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>81997291</t>
+          <t>81229677</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Lagardere Travel Retail Singapore Pte Ltd</t>
+          <t>Instant Hire Pte. Ltd.</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$4,000 – $6,000 per month</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -6566,34 +6566,34 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>['Paya Lebar', ',East Region']</t>
+          <t>['Joo Koon', ',West Region']</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>17m ago</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Project Manager (Security Technology)</t>
+          <t>Staff Nurse/ Senior Staff Nurse</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>81997279</t>
+          <t>81998132</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>CERTIS GROUP - GHR</t>
+          <t>Simon Consultancy Pte Ltd</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>$5,000 – $7,500 per month</t>
+          <t>$3,000 – $4,500 per month</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -6603,34 +6603,34 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>['Commonwealth', ',Central Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>18m ago</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Accountant</t>
+          <t>Restaurant Supervisor</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>81997278</t>
+          <t>81998116</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>City Developments Limited</t>
+          <t>MIZUKI F &amp; B PTE LTD</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$3,000 – $4,000 per month</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -6640,34 +6640,34 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Orchard', ',Central Region']</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>19m ago</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Private Bus Driver (Class 4/BDVL/Gross up to $3500)</t>
+          <t>Assistant Manager, Fund Accounting (Private Equity)</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>81997121</t>
+          <t>81998106</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>Vistra Corporate Services (SEA) Pte Ltd</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>$2,500 – $3,500 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -6682,24 +6682,24 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>20m ago</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Executive / Senior Executive, Property Management</t>
+          <t>Executive / Senior Engineer (Gas Pipelines &amp; Operations Maintenance)</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>81997091</t>
+          <t>81998062</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>City Developments Limited</t>
+          <t>Singapore Power Ltd</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -6714,34 +6714,34 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['North Region']</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>23m ago</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Sales Consultant</t>
+          <t>Financial Controller - Hospitality</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>81997077</t>
+          <t>81998060</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Trusty Cars Ltd.</t>
+          <t>Michael Page International Pte Ltd</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>10000</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -6751,34 +6751,34 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>['Bishan', ',Central Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>23m ago</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>CUSTOMER SERVICE EXECUTIVE – SWISS MNC ($3K + AWS + 2 months Bonus)</t>
+          <t>Clinical Assistant</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>81997068</t>
+          <t>81998002</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>People Profilers Pte Ltd</t>
+          <t>Alpha Chiropractic Health Pte Ltd</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>$2,200 – $3,200 per month</t>
+          <t>$2,000 – $2,800 per month</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -6788,34 +6788,34 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>['West Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>24m ago</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Bus Driver (Class 4/Islandwide/Basic+OT=Gross up to $5000/fixed shift)</t>
+          <t>Finance Manager - Technology &amp; Manufacturing</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>81997051</t>
+          <t>81998037</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>Michael Page International Pte Ltd</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>$2,400 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -6830,66 +6830,66 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>25m ago</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Accounts &amp; Admin Executive - short contract (Engineering/3.6k/5 days)</t>
+          <t>Engineering Technician (Test / Debug / East / Salary UP 3,200)</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>81997037</t>
+          <t>81997994</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>RECRUIT FAST PTE. LTD.</t>
+          <t>ALWAYSHIRED PTE. LTD.</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>$3,000 – $3,600 per month</t>
+          <t>$2,400 – $3,200 per month</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>This is a Contract/Temp job</t>
+          <t>This is a Full time job</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>['West Region']</t>
+          <t>['Tampines', ',East Region']</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>27m ago</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Bus Driver (Class 4/BDVL/Gross up to $2850/Rotating shift/Islandwide)</t>
+          <t>Quantity Surveyor</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>81997030</t>
+          <t>81997990</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>Benchmark Staffing Solutions</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>$1,800 – $2,200 per month</t>
+          <t>$3,500 – $4,500 per month</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -6899,34 +6899,34 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Downtown Core', ',Central Region']</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>29m ago</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Sales Executive (Based in Singapore)</t>
+          <t>Admin Assistant (Procurement)</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>81997023</t>
+          <t>81997955</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Etika Group of Companies</t>
+          <t>Jumbo Group Of Restaurants Pte Ltd</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>$2,500 – $3,000 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -6936,34 +6936,34 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>['Kaki Bukit', ',East Region']</t>
+          <t>['East Region']</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>31m ago</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Senior Mechanical Engineer (Semiconductor)</t>
+          <t>Social Worker (CREST / COMIT)</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>81997020</t>
+          <t>81997512</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Talent Spot Group Pte Ltd</t>
+          <t>Viriya Community Services</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>$8,000 – $10,000 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -6973,34 +6973,34 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>['North Region']</t>
+          <t>['West Region']</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>1h ago</t>
+          <t>54m ago</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Lift Technician ( 5 Days  / Islandwide / Up to $3800 )</t>
+          <t>Senior Planning Engineer ( Waterfront Project )</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>81997004</t>
+          <t>81997354</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>ALWAYSHIRED PTE. LTD.</t>
+          <t>China Jingye Engineering Corporation Limited (Singapore Branch)</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>$3,000 – $4,000 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -7010,7 +7010,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>['Kallang', ',Central Region']</t>
+          <t>['Sentosa', ',Central Region']</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -7022,17 +7022,17 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Sales Engineer</t>
+          <t>Security Systems Project Director</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>81983111</t>
+          <t>81997351</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Electronics &amp; Engineering Pte Ltd</t>
+          <t>CERTIS GROUP - GHR</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -7047,7 +7047,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>['Outram', ',Central Region']</t>
+          <t>['Commonwealth', ',Central Region']</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -7059,22 +7059,22 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Accountant (Based in Singapore)</t>
+          <t>Store Assistant</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>81996973</t>
+          <t>81997313</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Etika Group of Companies</t>
+          <t>SIMCC PTE LTD</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>$3,000 – $4,500 per month</t>
+          <t>$2,000 – $2,500 per month</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -7084,7 +7084,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>['Kaki Bukit', ',East Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -7096,22 +7096,22 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Logistics Driver (SG only/Pulau Bukom/Class 4/Forklift/Up to $3000)</t>
+          <t>PUBLIC RELATIONS OFFICER – CONSTRUCTION</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>81996969</t>
+          <t>81997306</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>People Profilers Pte Ltd</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>$3,000 per month</t>
+          <t>$2,500 – $3,100 per month</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -7121,7 +7121,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>['Jurong Island And Bukom', ',West Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -7133,17 +7133,17 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>ASSISTANT MEMBERSHIP SERVICES EXECUTIVE</t>
+          <t>Executive / Senior Executive - Retail Campaign Marketing</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>81996957</t>
+          <t>81997291</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>SAFRA National Service Association</t>
+          <t>Lagardere Travel Retail Singapore Pte Ltd</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -7153,12 +7153,12 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>This is a Contract/Temp job</t>
+          <t>This is a Full time job</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Paya Lebar', ',East Region']</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -7170,22 +7170,22 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>URGENT!!! HR Executive (Recruitment / AWS + VB / MNC)</t>
+          <t>Project Manager (Security Technology)</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>81996948</t>
+          <t>81997279</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>TRUST RECRUIT PTE. LTD.</t>
+          <t>CERTIS GROUP - GHR</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>$3,000 – $3,500 per month</t>
+          <t>$5,000 – $7,500 per month</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -7195,7 +7195,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>['Tai Seng', ',North-East Region']</t>
+          <t>['Commonwealth', ',Central Region']</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -7207,22 +7207,22 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>*URGENT* Technician (Fabrication/ Kaki Bukit/ $2,200)_SPBT</t>
+          <t>Accountant</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>81996942</t>
+          <t>81997278</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>ScienTec Consulting Pte Ltd</t>
+          <t>City Developments Limited</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>SGD 1800 - 2200 per annum, AL, MC, AWS, VB</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -7232,7 +7232,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>['Bedok', ',East Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -7244,22 +7244,22 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Executive/Senior Executive Trade Marketing (Based in Singapore)</t>
+          <t>Private Bus Driver (Class 4/BDVL/Gross up to $3500)</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>81996941</t>
+          <t>81997121</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Etika Group of Companies</t>
+          <t>CVista HR Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>$2,800 – $4,000 per month</t>
+          <t>$2,500 – $3,500 per month</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -7269,7 +7269,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>['Kaki Bukit', ',East Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -7281,22 +7281,22 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>General Affairs Service Executive (Central, Up to $4,500)</t>
+          <t>Executive / Senior Executive, Property Management</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>81996927</t>
+          <t>81997091</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Good Job Creations (Singapore) Pte Ltd</t>
+          <t>City Developments Limited</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>$3,000 - $4,500 (CBD, with bonus)</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -7306,7 +7306,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>['Raffles Place', ',Central Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -7318,22 +7318,22 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Lorry Driver (Class 4/Islandwide/Gross up to $3000)</t>
+          <t>Sales Consultant</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>81996909</t>
+          <t>81997077</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>CVista HR Consulting Pte Ltd</t>
+          <t>Trusty Cars Ltd.</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>$2,500 – $3,000 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -7343,7 +7343,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Bishan', ',Central Region']</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -7355,22 +7355,22 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Assistant Project Engineer, PMO (ARTC)</t>
+          <t>CUSTOMER SERVICE EXECUTIVE – SWISS MNC ($3K + AWS + 2 months Bonus)</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>81996901</t>
+          <t>81997068</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Agency for Science, Technology and Research (A*STAR)</t>
+          <t>People Profilers Pte Ltd</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$2,200 – $3,200 per month</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -7380,34 +7380,34 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>['Pioneer', ',West Region']</t>
+          <t>['West Region']</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Executive / Senior Executive, Engagement (Corp, Govt)</t>
+          <t>Bus Driver (Class 4/Islandwide/Basic+OT=Gross up to $5000/fixed shift)</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>81996877</t>
+          <t>81997051</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>MINDSG LTD</t>
+          <t>CVista HR Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$2,400 per month</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -7417,71 +7417,71 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>['Queenstown', ',Central Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Field Service Technician (Depot)</t>
+          <t>Accounts &amp; Admin Executive - short contract (Engineering/3.6k/5 days)</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>81996857</t>
+          <t>81997037</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Smiths Detection Malaysia Sdn Bhd</t>
+          <t>RECRUIT FAST PTE. LTD.</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>$3,000 – $3,600 per month</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>This is a Full time job</t>
+          <t>This is a Contract/Temp job</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>['Singapore River', ',Central Region']</t>
+          <t>['West Region']</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>*URGENT* Pharmacy Technician (Office Hours, Clinic/Hospital) #HRY</t>
+          <t>Bus Driver (Class 4/BDVL/Gross up to $2850/Rotating shift/Islandwide)</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>81996846</t>
+          <t>81997030</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Private Advertiser</t>
+          <t>CVista HR Consulting Pte Ltd</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>$3,000 – $4,000 per month</t>
+          <t>$1,800 – $2,200 per month</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -7496,29 +7496,29 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Field Service Engineer (HVAC/ Mechanical Engineering)</t>
+          <t>Sales Executive (Based in Singapore)</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>81996845</t>
+          <t>81997023</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Pasona Singapore Pte. Ltd.</t>
+          <t>Etika Group of Companies</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>$3,400 – $5,000 per month</t>
+          <t>$2,500 – $3,000 per month</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -7528,34 +7528,34 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>['Tuas', ',West Region']</t>
+          <t>['Kaki Bukit', ',East Region']</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Talent Acquisition Manager (Blockchain) (Town, up to $6,700 + Bonus)</t>
+          <t>Senior Mechanical Engineer (Semiconductor)</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>81996844</t>
+          <t>81997020</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Good Job Creations (Singapore) Pte Ltd</t>
+          <t>Talent Spot Group Pte Ltd</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>$5,000 - $6,700 (Central, with Bonus)</t>
+          <t>$8,000 – $10,000 per month</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -7565,34 +7565,34 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>['Orchard', ',Central Region']</t>
+          <t>['North Region']</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>2h ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Restaurant Supervisor</t>
+          <t>Social Worker (CREST / COMIT)</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>81998116</t>
+          <t>81997512</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>MIZUKI F &amp; B PTE LTD</t>
+          <t>Viriya Community Services</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>$3,000 – $4,000 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -7602,29 +7602,29 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>['Orchard', ',Central Region']</t>
+          <t>['West Region']</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>Just now</t>
+          <t>54m ago</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Assistant Manager, Fund Accounting (Private Equity)</t>
+          <t>Senior Planning Engineer ( Waterfront Project )</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>81998106</t>
+          <t>81997354</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Vistra Corporate Services (SEA) Pte Ltd</t>
+          <t>China Jingye Engineering Corporation Limited (Singapore Branch)</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -7639,29 +7639,29 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Sentosa', ',Central Region']</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>2m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Executive / Senior Engineer (Gas Pipelines &amp; Operations Maintenance)</t>
+          <t>Security Systems Project Director</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>81998062</t>
+          <t>81997351</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Singapore Power Ltd</t>
+          <t>CERTIS GROUP - GHR</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -7676,34 +7676,34 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>['North Region']</t>
+          <t>['Commonwealth', ',Central Region']</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>4m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Financial Controller - Hospitality</t>
+          <t>Store Assistant</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>81998060</t>
+          <t>81997313</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Michael Page International Pte Ltd</t>
+          <t>SIMCC PTE LTD</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>10000</t>
+          <t>$2,000 – $2,500 per month</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -7718,29 +7718,29 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>5m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Clinical Assistant</t>
+          <t>PUBLIC RELATIONS OFFICER – CONSTRUCTION</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>81998002</t>
+          <t>81997306</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Alpha Chiropractic Health Pte Ltd</t>
+          <t>People Profilers Pte Ltd</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>$2,000 – $2,800 per month</t>
+          <t>$2,500 – $3,100 per month</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -7755,24 +7755,24 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>6m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Finance Manager - Technology &amp; Manufacturing</t>
+          <t>Executive / Senior Executive - Retail Campaign Marketing</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>81998037</t>
+          <t>81997291</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Michael Page International Pte Ltd</t>
+          <t>Lagardere Travel Retail Singapore Pte Ltd</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -7787,34 +7787,34 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>['Central Region']</t>
+          <t>['Paya Lebar', ',East Region']</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>6m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Engineering Technician (Test / Debug / East / Salary UP 3,200)</t>
+          <t>Project Manager (Security Technology)</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>81997994</t>
+          <t>81997279</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>ALWAYSHIRED PTE. LTD.</t>
+          <t>CERTIS GROUP - GHR</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>$2,400 – $3,200 per month</t>
+          <t>$5,000 – $7,500 per month</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -7824,34 +7824,34 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>['Tampines', ',East Region']</t>
+          <t>['Commonwealth', ',Central Region']</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>8m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Quantity Surveyor</t>
+          <t>Accountant</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>81997990</t>
+          <t>81997278</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Benchmark Staffing Solutions</t>
+          <t>City Developments Limited</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>$3,500 – $4,500 per month</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -7861,12 +7861,12 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>['Downtown Core', ',Central Region']</t>
+          <t>['Central Region']</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>10m ago</t>
+          <t>1h ago</t>
         </is>
       </c>
     </row>
